--- a/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
+++ b/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neutr\OneDrive\デスクトップ\麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー\履歴書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2209423\Documents\GitHub\Tsukamoto_Takumi_Game_Program\麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FEB09-6741-4F76-BE89-90435A528C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0D0B6-104D-42E1-8548-DFB5A6565E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,10 +1075,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>25</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1087,23 +1083,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>私は貴社が長い歴史がありつつも、常に新しい刺激を取り入れている点に惹かれ志望しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特に「白群」という業務提携グループを通じ、他社の方々との連携や刺激を受けつつゲーム開発を行う体制には、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大きな可能性を感じます。他社の方々の長所を生かしつつゲームを作るという機会は他にはなく、また設立から</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームを楽しみにしてくれている方々を感動させることができるゲームを作れるよう努力してまいります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30年を迎えてなお常に上を目指すという姿勢は非常に魅力的に感じました。私も貴社でさらなる成長を遂げ、</t>
+    <t>私は、貴社の説明会で「従業員が一丸となりゲーム制作に取り組む姿勢」をお聞きし、志望いたしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は授業でチーム制作に取り組む中で、モチベーションや方向性が一致しないとプロジェクトが停滞する難しさを経験しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、貴社のようにルールを徹底し、全員が同じ目標に向かって取り組む環境でこそ、高品質なゲームを生み出せると感じました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを魅了するゲーム制作に取り組みたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、プログラマでも運営や企画に携われる環境にも強く魅力を感じています。私も貴社で知識を習得し、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2499,19 +2499,19 @@
   <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:AO50"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="2.26171875" customWidth="1"/>
-    <col min="5" max="5" width="2.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="2.26171875" customWidth="1"/>
-    <col min="13" max="13" width="2.26171875" bestFit="1" customWidth="1"/>
-    <col min="14" max="42" width="2.26171875" customWidth="1"/>
+    <col min="1" max="4" width="2.25" customWidth="1"/>
+    <col min="5" max="5" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="2.25" customWidth="1"/>
+    <col min="13" max="13" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="42" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -2534,14 +2534,14 @@
         <v>2</v>
       </c>
       <c r="Y1" s="42" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Z1" s="42"/>
       <c r="AA1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="AB1" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="42"/>
       <c r="AD1" s="41" t="s">
@@ -2550,7 +2550,7 @@
       <c r="AE1" s="41"/>
       <c r="AF1" s="41"/>
     </row>
-    <row r="2" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>7</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
     </row>
-    <row r="3" spans="1:42" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="114" t="s">
         <v>10</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:42" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2692,7 +2692,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="120" t="s">
         <v>12</v>
       </c>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="S5" s="99"/>
       <c r="T5" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U5" s="117"/>
       <c r="V5" s="99" t="s">
@@ -2762,7 +2762,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="121"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -2806,7 +2806,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="AO7" s="88"/>
       <c r="AP7" s="17"/>
     </row>
-    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
         <v>7</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="AO8" s="23"/>
       <c r="AP8" s="18"/>
     </row>
-    <row r="9" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
         <v>31</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="AP9" s="19"/>
     </row>
-    <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="90" t="s">
         <v>36</v>
@@ -3028,7 +3028,7 @@
       <c r="AO10" s="51"/>
       <c r="AP10" s="20"/>
     </row>
-    <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="91"/>
       <c r="C11" s="91"/>
@@ -3072,7 +3072,7 @@
       <c r="AO11" s="84"/>
       <c r="AP11" s="21"/>
     </row>
-    <row r="12" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
         <v>7</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="AO12" s="23"/>
       <c r="AP12" s="18"/>
     </row>
-    <row r="13" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
         <v>37</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="AP13" s="19"/>
     </row>
-    <row r="14" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="90" t="s">
         <v>38</v>
@@ -3232,7 +3232,7 @@
       <c r="AO14" s="51"/>
       <c r="AP14" s="20"/>
     </row>
-    <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="91"/>
       <c r="C15" s="91"/>
@@ -3276,7 +3276,7 @@
       <c r="AO15" s="84"/>
       <c r="AP15" s="21"/>
     </row>
-    <row r="16" spans="1:42" ht="7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="6.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3320,7 +3320,7 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74" t="s">
         <v>2</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="AO17" s="68"/>
       <c r="AP17" s="69"/>
     </row>
-    <row r="18" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="118"/>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
@@ -3416,7 +3416,7 @@
       <c r="AO18" s="81"/>
       <c r="AP18" s="22"/>
     </row>
-    <row r="19" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="102" t="s">
         <v>42</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="AO19" s="75"/>
       <c r="AP19" s="7"/>
     </row>
-    <row r="20" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="102" t="s">
         <v>42</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="AO20" s="75"/>
       <c r="AP20" s="7"/>
     </row>
-    <row r="21" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="102" t="s">
         <v>47</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="AO21" s="75"/>
       <c r="AP21" s="7"/>
     </row>
-    <row r="22" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="102" t="s">
         <v>47</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="AO22" s="75"/>
       <c r="AP22" s="7"/>
     </row>
-    <row r="23" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="102" t="s">
         <v>50</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="AO23" s="75"/>
       <c r="AP23" s="7"/>
     </row>
-    <row r="24" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="102"/>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
@@ -3712,7 +3712,7 @@
       <c r="AO24" s="76"/>
       <c r="AP24" s="7"/>
     </row>
-    <row r="25" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="102" t="s">
         <v>53</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="AO25" s="75"/>
       <c r="AP25" s="7"/>
     </row>
-    <row r="26" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="102" t="s">
         <v>53</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="AO26" s="75"/>
       <c r="AP26" s="7"/>
     </row>
-    <row r="27" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="102"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3858,7 +3858,7 @@
       <c r="AO27" s="80"/>
       <c r="AP27" s="7"/>
     </row>
-    <row r="28" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="102"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -3902,7 +3902,7 @@
       <c r="AO28" s="75"/>
       <c r="AP28" s="7"/>
     </row>
-    <row r="29" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="102"/>
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
@@ -3946,7 +3946,7 @@
       <c r="AO29" s="76"/>
       <c r="AP29" s="7"/>
     </row>
-    <row r="30" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="102"/>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
@@ -3990,7 +3990,7 @@
       <c r="AO30" s="75"/>
       <c r="AP30" s="7"/>
     </row>
-    <row r="31" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="102"/>
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
@@ -4034,7 +4034,7 @@
       <c r="AO31" s="80"/>
       <c r="AP31" s="7"/>
     </row>
-    <row r="32" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="102"/>
       <c r="B32" s="72"/>
       <c r="C32" s="72"/>
@@ -4078,7 +4078,7 @@
       <c r="AO32" s="75"/>
       <c r="AP32" s="7"/>
     </row>
-    <row r="33" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="102"/>
       <c r="B33" s="72"/>
       <c r="C33" s="72"/>
@@ -4122,7 +4122,7 @@
       <c r="AO33" s="75"/>
       <c r="AP33" s="7"/>
     </row>
-    <row r="34" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="102"/>
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
@@ -4166,7 +4166,7 @@
       <c r="AO34" s="75"/>
       <c r="AP34" s="7"/>
     </row>
-    <row r="35" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="102"/>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
@@ -4210,7 +4210,7 @@
       <c r="AO35" s="75"/>
       <c r="AP35" s="7"/>
     </row>
-    <row r="36" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="104"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -4254,7 +4254,7 @@
       <c r="AO36" s="79"/>
       <c r="AP36" s="8"/>
     </row>
-    <row r="37" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="54" t="s">
         <v>56</v>
       </c>
@@ -4300,7 +4300,7 @@
       <c r="AO37" s="54"/>
       <c r="AP37" s="54"/>
     </row>
-    <row r="38" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="74" t="s">
         <v>2</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="AO38" s="68"/>
       <c r="AP38" s="69"/>
     </row>
-    <row r="39" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="106"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -4394,7 +4394,7 @@
       <c r="AO39" s="57"/>
       <c r="AP39" s="22"/>
     </row>
-    <row r="40" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="64"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
@@ -4438,7 +4438,7 @@
       <c r="AO40" s="63"/>
       <c r="AP40" s="7"/>
     </row>
-    <row r="41" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="64"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -4482,7 +4482,7 @@
       <c r="AO41" s="63"/>
       <c r="AP41" s="7"/>
     </row>
-    <row r="42" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="64"/>
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
@@ -4526,7 +4526,7 @@
       <c r="AO42" s="63"/>
       <c r="AP42" s="7"/>
     </row>
-    <row r="43" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="66"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -4570,7 +4570,7 @@
       <c r="AO43" s="62"/>
       <c r="AP43" s="10"/>
     </row>
-    <row r="44" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4614,7 +4614,7 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="109" t="s">
         <v>57</v>
       </c>
@@ -4660,10 +4660,10 @@
       <c r="AO45" s="110"/>
       <c r="AP45" s="111"/>
     </row>
-    <row r="46" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -4706,10 +4706,10 @@
       <c r="AO46" s="39"/>
       <c r="AP46" s="7"/>
     </row>
-    <row r="47" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -4752,10 +4752,10 @@
       <c r="AO47" s="39"/>
       <c r="AP47" s="7"/>
     </row>
-    <row r="48" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
@@ -4798,10 +4798,10 @@
       <c r="AO48" s="39"/>
       <c r="AP48" s="7"/>
     </row>
-    <row r="49" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
@@ -4844,10 +4844,10 @@
       <c r="AO49" s="39"/>
       <c r="AP49" s="7"/>
     </row>
-    <row r="50" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
@@ -4890,7 +4890,7 @@
       <c r="AO50" s="39"/>
       <c r="AP50" s="7"/>
     </row>
-    <row r="51" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="109" t="s">
         <v>58</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="AO51" s="110"/>
       <c r="AP51" s="111"/>
     </row>
-    <row r="52" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="39" t="s">
         <v>59</v>
@@ -4982,7 +4982,7 @@
       <c r="AO52" s="39"/>
       <c r="AP52" s="7"/>
     </row>
-    <row r="53" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="39" t="s">
         <v>60</v>
@@ -5028,7 +5028,7 @@
       <c r="AO53" s="39"/>
       <c r="AP53" s="7"/>
     </row>
-    <row r="54" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="39" t="s">
         <v>61</v>
@@ -5074,7 +5074,7 @@
       <c r="AO54" s="39"/>
       <c r="AP54" s="7"/>
     </row>
-    <row r="55" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="39" t="s">
         <v>62</v>
@@ -5120,7 +5120,7 @@
       <c r="AO55" s="39"/>
       <c r="AP55" s="7"/>
     </row>
-    <row r="56" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="39" t="s">
         <v>63</v>
@@ -5166,7 +5166,7 @@
       <c r="AO56" s="39"/>
       <c r="AP56" s="7"/>
     </row>
-    <row r="57" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="39" t="s">
         <v>64</v>
@@ -5212,7 +5212,7 @@
       <c r="AO57" s="39"/>
       <c r="AP57" s="7"/>
     </row>
-    <row r="58" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="109" t="s">
         <v>65</v>
       </c>
@@ -5260,7 +5260,7 @@
       <c r="AO58" s="110"/>
       <c r="AP58" s="13"/>
     </row>
-    <row r="59" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="39" t="s">
         <v>67</v>
@@ -5306,7 +5306,7 @@
       <c r="AO59" s="39"/>
       <c r="AP59" s="7"/>
     </row>
-    <row r="60" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="39" t="s">
         <v>68</v>
@@ -5352,7 +5352,7 @@
       <c r="AO60" s="39"/>
       <c r="AP60" s="7"/>
     </row>
-    <row r="61" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="39" t="s">
         <v>69</v>
@@ -5398,7 +5398,7 @@
       <c r="AO61" s="39"/>
       <c r="AP61" s="7"/>
     </row>
-    <row r="62" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="39" t="s">
         <v>70</v>
@@ -5444,7 +5444,7 @@
       <c r="AO62" s="39"/>
       <c r="AP62" s="7"/>
     </row>
-    <row r="63" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="109" t="s">
         <v>71</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="AO63" s="110"/>
       <c r="AP63" s="13"/>
     </row>
-    <row r="64" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="39" t="s">
         <v>73</v>
@@ -5538,7 +5538,7 @@
       <c r="AO64" s="39"/>
       <c r="AP64" s="7"/>
     </row>
-    <row r="65" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="39" t="s">
         <v>74</v>
@@ -5584,7 +5584,7 @@
       <c r="AO65" s="39"/>
       <c r="AP65" s="7"/>
     </row>
-    <row r="66" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="39" t="s">
         <v>75</v>
@@ -5630,7 +5630,7 @@
       <c r="AO66" s="39"/>
       <c r="AP66" s="7"/>
     </row>
-    <row r="67" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="109" t="s">
         <v>76</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="AO67" s="110"/>
       <c r="AP67" s="111"/>
     </row>
-    <row r="68" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="39" t="s">
         <v>77</v>
@@ -5722,7 +5722,7 @@
       <c r="AO68" s="39"/>
       <c r="AP68" s="7"/>
     </row>
-    <row r="69" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="39" t="s">
         <v>78</v>
@@ -5768,7 +5768,7 @@
       <c r="AO69" s="39"/>
       <c r="AP69" s="7"/>
     </row>
-    <row r="70" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
       <c r="B70" s="40" t="s">
         <v>79</v>
@@ -5814,7 +5814,7 @@
       <c r="AO70" s="40"/>
       <c r="AP70" s="10"/>
     </row>
-    <row r="71" spans="1:42" ht="26.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="162">
     <mergeCell ref="F2:M2"/>

--- a/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
+++ b/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2209423\Documents\GitHub\Tsukamoto_Takumi_Game_Program\麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0D0B6-104D-42E1-8548-DFB5A6565E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC312692-8F28-403B-877B-F25E034864B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,27 +1083,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>私は、貴社の説明会で「従業員が一丸となりゲーム制作に取り組む姿勢」をお聞きし、志望いたしました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私は授業でチーム制作に取り組む中で、モチベーションや方向性が一致しないとプロジェクトが停滞する難しさを経験しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そのため、貴社のようにルールを徹底し、全員が同じ目標に向かって取り組む環境でこそ、高品質なゲームを生み出せると感じました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーを魅了するゲーム制作に取り組みたいです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、プログラマでも運営や企画に携われる環境にも強く魅力を感じています。私も貴社で知識を習得し、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は、貴社が掲げる「みんなを楽しませドキドキさせたい」という理念に深く共感し、志望いたしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めて買ったゲームを家に持ち帰る時のドキドキ感は今でも忘れられず、それが私のゲームに対する情熱の原点となっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今でも新作ゲームを手にするたびに感じるあの興奮を、今度は開発者として多くのユーザーに届けたいと強く願っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのような中でユーザーにいつまでも楽しまれるゲーム開発に貢献したいと考えます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、貴社のゲームだけでなく、ホームページやプロモーションにも「ドキドキ」を大切にする姿勢が感じられる点に魅力を感じております。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1756,9 +1756,222 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1771,9 +1984,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1792,220 +2002,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2499,7 +2499,7 @@
   <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2525,62 +2525,62 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
       <c r="K1" s="2"/>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
       <c r="X1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="42"/>
+      <c r="Y1" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="113"/>
       <c r="AA1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="41" t="s">
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
     </row>
     <row r="2" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
       <c r="AA2" s="30"/>
@@ -2601,40 +2601,40 @@
       <c r="AP2" s="1"/>
     </row>
     <row r="3" spans="1:42" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="48"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -2652,31 +2652,31 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
       <c r="AC4" s="37"/>
       <c r="AD4" s="37"/>
       <c r="AE4" s="37"/>
@@ -2693,64 +2693,64 @@
       <c r="AP4" s="1"/>
     </row>
     <row r="5" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="99" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="117" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="99" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="117" t="s">
+      <c r="K5" s="50"/>
+      <c r="L5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="99" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99" t="s">
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="99" t="s">
+      <c r="R5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="99"/>
-      <c r="T5" s="117" t="s">
+      <c r="S5" s="50"/>
+      <c r="T5" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="U5" s="117"/>
-      <c r="V5" s="99" t="s">
+      <c r="U5" s="52"/>
+      <c r="V5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99" t="s">
+      <c r="W5" s="50"/>
+      <c r="X5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="Y5" s="27"/>
-      <c r="Z5" s="92" t="s">
+      <c r="Z5" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="94" t="s">
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="95"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="93"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -2763,38 +2763,38 @@
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="121"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="28"/>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="97"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="95"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -2807,25 +2807,25 @@
       <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
@@ -2837,12 +2837,12 @@
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="17"/>
-      <c r="AA7" s="68" t="s">
+      <c r="AA7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
       <c r="AE7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2869,47 +2869,47 @@
       <c r="AP7" s="17"/>
     </row>
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="57" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
       <c r="AG8" s="13"/>
-      <c r="AH8" s="82" t="s">
+      <c r="AH8" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="83"/>
+      <c r="AI8" s="81"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -2919,28 +2919,28 @@
       <c r="AP8" s="18"/>
     </row>
     <row r="9" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
       <c r="E9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="100" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101" t="s">
+      <c r="I9" s="66"/>
+      <c r="J9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="14" t="s">
         <v>19</v>
       </c>
@@ -2964,17 +2964,17 @@
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
       <c r="AG9" s="15"/>
-      <c r="AH9" s="52" t="s">
+      <c r="AH9" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
       <c r="AL9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
       <c r="AO9" s="11" t="s">
         <v>19</v>
       </c>
@@ -2982,138 +2982,138 @@
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="85" t="s">
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="12"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
       <c r="AP11" s="21"/>
     </row>
     <row r="12" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="57" t="s">
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
       <c r="AG12" s="13"/>
-      <c r="AH12" s="82" t="s">
+      <c r="AH12" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AI12" s="83"/>
+      <c r="AI12" s="81"/>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
@@ -3123,28 +3123,28 @@
       <c r="AP12" s="18"/>
     </row>
     <row r="13" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="100" t="s">
+      <c r="G13" s="65"/>
+      <c r="H13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
       <c r="M13" s="14" t="s">
         <v>19</v>
       </c>
@@ -3168,17 +3168,17 @@
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
-      <c r="AH13" s="52" t="s">
+      <c r="AH13" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
       <c r="AL13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
       <c r="AO13" s="11" t="s">
         <v>19</v>
       </c>
@@ -3186,94 +3186,94 @@
     </row>
     <row r="14" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="85" t="s">
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="12"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
       <c r="AP15" s="21"/>
     </row>
     <row r="16" spans="1:42" ht="6.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3321,1253 +3321,1253 @@
       <c r="AP16" s="1"/>
     </row>
     <row r="17" spans="1:42" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="68" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="69"/>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="68"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
       <c r="AP17" s="69"/>
     </row>
     <row r="18" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="118"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="101"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="81"/>
-      <c r="AN18" s="81"/>
-      <c r="AO18" s="81"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="97"/>
       <c r="AP18" s="22"/>
     </row>
     <row r="19" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="72" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="73"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="75"/>
-      <c r="AO19" s="75"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
       <c r="AP19" s="7"/>
     </row>
     <row r="20" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="72" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="73"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="75"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="72" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="73"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="75"/>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="75"/>
-      <c r="AN21" s="75"/>
-      <c r="AO21" s="75"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="72" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="73"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="75"/>
-      <c r="AO22" s="75"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="72" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="73"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="75" t="s">
+      <c r="I23" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="75"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
       <c r="AP23" s="7"/>
     </row>
     <row r="24" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="102"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="103"/>
+      <c r="AM24" s="103"/>
+      <c r="AN24" s="103"/>
+      <c r="AO24" s="103"/>
       <c r="AP24" s="7"/>
     </row>
     <row r="25" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="72" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="73"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="75"/>
-      <c r="AO25" s="75"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="72" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="73"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="75"/>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="75"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="102"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="80" t="s">
+      <c r="I27" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="100"/>
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="102"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="75"/>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="75"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
       <c r="AP28" s="7"/>
     </row>
     <row r="29" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="102"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="76"/>
-      <c r="AC29" s="76"/>
-      <c r="AD29" s="76"/>
-      <c r="AE29" s="76"/>
-      <c r="AF29" s="76"/>
-      <c r="AG29" s="76"/>
-      <c r="AH29" s="76"/>
-      <c r="AI29" s="76"/>
-      <c r="AJ29" s="76"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="76"/>
-      <c r="AM29" s="76"/>
-      <c r="AN29" s="76"/>
-      <c r="AO29" s="76"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
       <c r="AP29" s="7"/>
     </row>
     <row r="30" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="102"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="75"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="75"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="102"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="99"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="80"/>
-      <c r="AE31" s="80"/>
-      <c r="AF31" s="80"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="80"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="80"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="80"/>
-      <c r="AN31" s="80"/>
-      <c r="AO31" s="80"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="100"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="100"/>
+      <c r="AN31" s="100"/>
+      <c r="AO31" s="100"/>
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="102"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="99"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="75"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="98"/>
+      <c r="AL32" s="98"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="102"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="75"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="75"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="75"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="75"/>
-      <c r="AO33" s="75"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
       <c r="AP33" s="7"/>
     </row>
     <row r="34" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="102"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="99"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="75"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="98"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
+      <c r="AB34" s="98"/>
+      <c r="AC34" s="98"/>
+      <c r="AD34" s="98"/>
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="98"/>
+      <c r="AL34" s="98"/>
+      <c r="AM34" s="98"/>
+      <c r="AN34" s="98"/>
+      <c r="AO34" s="98"/>
       <c r="AP34" s="7"/>
     </row>
     <row r="35" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="102"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="99"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="75"/>
-      <c r="X35" s="75"/>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="75"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="75"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="98"/>
+      <c r="AC35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="98"/>
+      <c r="AG35" s="98"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="98"/>
+      <c r="AO35" s="98"/>
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="104"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="78"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="105"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="105"/>
+      <c r="Y36" s="105"/>
+      <c r="Z36" s="105"/>
+      <c r="AA36" s="105"/>
+      <c r="AB36" s="105"/>
+      <c r="AC36" s="105"/>
+      <c r="AD36" s="105"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="105"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
       <c r="AP36" s="8"/>
     </row>
     <row r="37" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54"/>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
-      <c r="AP37" s="54"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="121"/>
+      <c r="AC37" s="121"/>
+      <c r="AD37" s="121"/>
+      <c r="AE37" s="121"/>
+      <c r="AF37" s="121"/>
+      <c r="AG37" s="121"/>
+      <c r="AH37" s="121"/>
+      <c r="AI37" s="121"/>
+      <c r="AJ37" s="121"/>
+      <c r="AK37" s="121"/>
+      <c r="AL37" s="121"/>
+      <c r="AM37" s="121"/>
+      <c r="AN37" s="121"/>
+      <c r="AO37" s="121"/>
+      <c r="AP37" s="121"/>
     </row>
     <row r="38" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="68" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="58" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="69"/>
-      <c r="H38" s="74" t="s">
+      <c r="H38" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="68"/>
-      <c r="AJ38" s="68"/>
-      <c r="AK38" s="68"/>
-      <c r="AL38" s="68"/>
-      <c r="AM38" s="68"/>
-      <c r="AN38" s="68"/>
-      <c r="AO38" s="68"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="58"/>
+      <c r="AJ38" s="58"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
       <c r="AP38" s="69"/>
     </row>
     <row r="39" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="122"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
-      <c r="AH39" s="57"/>
-      <c r="AI39" s="57"/>
-      <c r="AJ39" s="57"/>
-      <c r="AK39" s="57"/>
-      <c r="AL39" s="57"/>
-      <c r="AM39" s="57"/>
-      <c r="AN39" s="57"/>
-      <c r="AO39" s="57"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="84"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="84"/>
+      <c r="AA39" s="84"/>
+      <c r="AB39" s="84"/>
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="84"/>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="84"/>
+      <c r="AG39" s="84"/>
+      <c r="AH39" s="84"/>
+      <c r="AI39" s="84"/>
+      <c r="AJ39" s="84"/>
+      <c r="AK39" s="84"/>
+      <c r="AL39" s="84"/>
+      <c r="AM39" s="84"/>
+      <c r="AN39" s="84"/>
+      <c r="AO39" s="84"/>
       <c r="AP39" s="22"/>
     </row>
     <row r="40" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="64"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="102"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="63"/>
-      <c r="AB40" s="63"/>
-      <c r="AC40" s="63"/>
-      <c r="AD40" s="63"/>
-      <c r="AE40" s="63"/>
-      <c r="AF40" s="63"/>
-      <c r="AG40" s="63"/>
-      <c r="AH40" s="63"/>
-      <c r="AI40" s="63"/>
-      <c r="AJ40" s="63"/>
-      <c r="AK40" s="63"/>
-      <c r="AL40" s="63"/>
-      <c r="AM40" s="63"/>
-      <c r="AN40" s="63"/>
-      <c r="AO40" s="63"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
       <c r="AP40" s="7"/>
     </row>
     <row r="41" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="102"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="63"/>
-      <c r="AK41" s="63"/>
-      <c r="AL41" s="63"/>
-      <c r="AM41" s="63"/>
-      <c r="AN41" s="63"/>
-      <c r="AO41" s="63"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="42"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
       <c r="AP41" s="7"/>
     </row>
     <row r="42" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="64"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="102"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="63"/>
-      <c r="AA42" s="63"/>
-      <c r="AB42" s="63"/>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="63"/>
-      <c r="AE42" s="63"/>
-      <c r="AF42" s="63"/>
-      <c r="AG42" s="63"/>
-      <c r="AH42" s="63"/>
-      <c r="AI42" s="63"/>
-      <c r="AJ42" s="63"/>
-      <c r="AK42" s="63"/>
-      <c r="AL42" s="63"/>
-      <c r="AM42" s="63"/>
-      <c r="AN42" s="63"/>
-      <c r="AO42" s="63"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
+      <c r="AI42" s="42"/>
+      <c r="AJ42" s="42"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+      <c r="AO42" s="42"/>
       <c r="AP42" s="7"/>
     </row>
     <row r="43" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="107"/>
       <c r="H43" s="25"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="62"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="108"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="108"/>
+      <c r="AC43" s="108"/>
+      <c r="AD43" s="108"/>
+      <c r="AE43" s="108"/>
+      <c r="AF43" s="108"/>
+      <c r="AG43" s="108"/>
+      <c r="AH43" s="108"/>
+      <c r="AI43" s="108"/>
+      <c r="AJ43" s="108"/>
+      <c r="AK43" s="108"/>
+      <c r="AL43" s="108"/>
+      <c r="AM43" s="108"/>
+      <c r="AN43" s="108"/>
+      <c r="AO43" s="108"/>
       <c r="AP43" s="10"/>
     </row>
     <row r="44" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4615,1208 +4615,1346 @@
       <c r="AP44" s="1"/>
     </row>
     <row r="45" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="110"/>
-      <c r="Z45" s="110"/>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="110"/>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="110"/>
-      <c r="AL45" s="110"/>
-      <c r="AM45" s="110"/>
-      <c r="AN45" s="110"/>
-      <c r="AO45" s="110"/>
-      <c r="AP45" s="111"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="44"/>
+      <c r="AP45" s="45"/>
     </row>
     <row r="46" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
-      <c r="B46" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
-      <c r="AA46" s="39"/>
-      <c r="AB46" s="39"/>
-      <c r="AC46" s="39"/>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="39"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="39"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="39"/>
-      <c r="AM46" s="39"/>
-      <c r="AN46" s="39"/>
-      <c r="AO46" s="39"/>
+      <c r="B46" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70"/>
+      <c r="Z46" s="70"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="70"/>
+      <c r="AD46" s="70"/>
+      <c r="AE46" s="70"/>
+      <c r="AF46" s="70"/>
+      <c r="AG46" s="70"/>
+      <c r="AH46" s="70"/>
+      <c r="AI46" s="70"/>
+      <c r="AJ46" s="70"/>
+      <c r="AK46" s="70"/>
+      <c r="AL46" s="70"/>
+      <c r="AM46" s="70"/>
+      <c r="AN46" s="70"/>
+      <c r="AO46" s="70"/>
       <c r="AP46" s="7"/>
     </row>
     <row r="47" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="39"/>
+      <c r="B47" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="70"/>
+      <c r="V47" s="70"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="70"/>
+      <c r="Y47" s="70"/>
+      <c r="Z47" s="70"/>
+      <c r="AA47" s="70"/>
+      <c r="AB47" s="70"/>
+      <c r="AC47" s="70"/>
+      <c r="AD47" s="70"/>
+      <c r="AE47" s="70"/>
+      <c r="AF47" s="70"/>
+      <c r="AG47" s="70"/>
+      <c r="AH47" s="70"/>
+      <c r="AI47" s="70"/>
+      <c r="AJ47" s="70"/>
+      <c r="AK47" s="70"/>
+      <c r="AL47" s="70"/>
+      <c r="AM47" s="70"/>
+      <c r="AN47" s="70"/>
+      <c r="AO47" s="70"/>
       <c r="AP47" s="7"/>
     </row>
     <row r="48" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39"/>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="39"/>
-      <c r="AM48" s="39"/>
-      <c r="AN48" s="39"/>
-      <c r="AO48" s="39"/>
+      <c r="B48" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="70"/>
+      <c r="Z48" s="70"/>
+      <c r="AA48" s="70"/>
+      <c r="AB48" s="70"/>
+      <c r="AC48" s="70"/>
+      <c r="AD48" s="70"/>
+      <c r="AE48" s="70"/>
+      <c r="AF48" s="70"/>
+      <c r="AG48" s="70"/>
+      <c r="AH48" s="70"/>
+      <c r="AI48" s="70"/>
+      <c r="AJ48" s="70"/>
+      <c r="AK48" s="70"/>
+      <c r="AL48" s="70"/>
+      <c r="AM48" s="70"/>
+      <c r="AN48" s="70"/>
+      <c r="AO48" s="70"/>
       <c r="AP48" s="7"/>
     </row>
     <row r="49" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
-      <c r="B49" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39"/>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39"/>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39"/>
+      <c r="B49" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="70"/>
+      <c r="V49" s="70"/>
+      <c r="W49" s="70"/>
+      <c r="X49" s="70"/>
+      <c r="Y49" s="70"/>
+      <c r="Z49" s="70"/>
+      <c r="AA49" s="70"/>
+      <c r="AB49" s="70"/>
+      <c r="AC49" s="70"/>
+      <c r="AD49" s="70"/>
+      <c r="AE49" s="70"/>
+      <c r="AF49" s="70"/>
+      <c r="AG49" s="70"/>
+      <c r="AH49" s="70"/>
+      <c r="AI49" s="70"/>
+      <c r="AJ49" s="70"/>
+      <c r="AK49" s="70"/>
+      <c r="AL49" s="70"/>
+      <c r="AM49" s="70"/>
+      <c r="AN49" s="70"/>
+      <c r="AO49" s="70"/>
       <c r="AP49" s="7"/>
     </row>
     <row r="50" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
-      <c r="B50" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
+      <c r="B50" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="70"/>
+      <c r="U50" s="70"/>
+      <c r="V50" s="70"/>
+      <c r="W50" s="70"/>
+      <c r="X50" s="70"/>
+      <c r="Y50" s="70"/>
+      <c r="Z50" s="70"/>
+      <c r="AA50" s="70"/>
+      <c r="AB50" s="70"/>
+      <c r="AC50" s="70"/>
+      <c r="AD50" s="70"/>
+      <c r="AE50" s="70"/>
+      <c r="AF50" s="70"/>
+      <c r="AG50" s="70"/>
+      <c r="AH50" s="70"/>
+      <c r="AI50" s="70"/>
+      <c r="AJ50" s="70"/>
+      <c r="AK50" s="70"/>
+      <c r="AL50" s="70"/>
+      <c r="AM50" s="70"/>
+      <c r="AN50" s="70"/>
+      <c r="AO50" s="70"/>
       <c r="AP50" s="7"/>
     </row>
     <row r="51" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
-      <c r="AF51" s="110"/>
-      <c r="AG51" s="110"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="110"/>
-      <c r="AL51" s="110"/>
-      <c r="AM51" s="110"/>
-      <c r="AN51" s="110"/>
-      <c r="AO51" s="110"/>
-      <c r="AP51" s="111"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="44"/>
+      <c r="AP51" s="45"/>
     </row>
     <row r="52" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="39"/>
-      <c r="AL52" s="39"/>
-      <c r="AM52" s="39"/>
-      <c r="AN52" s="39"/>
-      <c r="AO52" s="39"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="70"/>
+      <c r="Y52" s="70"/>
+      <c r="Z52" s="70"/>
+      <c r="AA52" s="70"/>
+      <c r="AB52" s="70"/>
+      <c r="AC52" s="70"/>
+      <c r="AD52" s="70"/>
+      <c r="AE52" s="70"/>
+      <c r="AF52" s="70"/>
+      <c r="AG52" s="70"/>
+      <c r="AH52" s="70"/>
+      <c r="AI52" s="70"/>
+      <c r="AJ52" s="70"/>
+      <c r="AK52" s="70"/>
+      <c r="AL52" s="70"/>
+      <c r="AM52" s="70"/>
+      <c r="AN52" s="70"/>
+      <c r="AO52" s="70"/>
       <c r="AP52" s="7"/>
     </row>
     <row r="53" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39"/>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="70"/>
+      <c r="AE53" s="70"/>
+      <c r="AF53" s="70"/>
+      <c r="AG53" s="70"/>
+      <c r="AH53" s="70"/>
+      <c r="AI53" s="70"/>
+      <c r="AJ53" s="70"/>
+      <c r="AK53" s="70"/>
+      <c r="AL53" s="70"/>
+      <c r="AM53" s="70"/>
+      <c r="AN53" s="70"/>
+      <c r="AO53" s="70"/>
       <c r="AP53" s="7"/>
     </row>
     <row r="54" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+      <c r="Z54" s="70"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="70"/>
+      <c r="AE54" s="70"/>
+      <c r="AF54" s="70"/>
+      <c r="AG54" s="70"/>
+      <c r="AH54" s="70"/>
+      <c r="AI54" s="70"/>
+      <c r="AJ54" s="70"/>
+      <c r="AK54" s="70"/>
+      <c r="AL54" s="70"/>
+      <c r="AM54" s="70"/>
+      <c r="AN54" s="70"/>
+      <c r="AO54" s="70"/>
       <c r="AP54" s="7"/>
     </row>
     <row r="55" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="70"/>
+      <c r="Y55" s="70"/>
+      <c r="Z55" s="70"/>
+      <c r="AA55" s="70"/>
+      <c r="AB55" s="70"/>
+      <c r="AC55" s="70"/>
+      <c r="AD55" s="70"/>
+      <c r="AE55" s="70"/>
+      <c r="AF55" s="70"/>
+      <c r="AG55" s="70"/>
+      <c r="AH55" s="70"/>
+      <c r="AI55" s="70"/>
+      <c r="AJ55" s="70"/>
+      <c r="AK55" s="70"/>
+      <c r="AL55" s="70"/>
+      <c r="AM55" s="70"/>
+      <c r="AN55" s="70"/>
+      <c r="AO55" s="70"/>
       <c r="AP55" s="7"/>
     </row>
     <row r="56" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="39"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="70"/>
+      <c r="Y56" s="70"/>
+      <c r="Z56" s="70"/>
+      <c r="AA56" s="70"/>
+      <c r="AB56" s="70"/>
+      <c r="AC56" s="70"/>
+      <c r="AD56" s="70"/>
+      <c r="AE56" s="70"/>
+      <c r="AF56" s="70"/>
+      <c r="AG56" s="70"/>
+      <c r="AH56" s="70"/>
+      <c r="AI56" s="70"/>
+      <c r="AJ56" s="70"/>
+      <c r="AK56" s="70"/>
+      <c r="AL56" s="70"/>
+      <c r="AM56" s="70"/>
+      <c r="AN56" s="70"/>
+      <c r="AO56" s="70"/>
       <c r="AP56" s="7"/>
     </row>
     <row r="57" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="70"/>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="70"/>
+      <c r="AA57" s="70"/>
+      <c r="AB57" s="70"/>
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="70"/>
+      <c r="AE57" s="70"/>
+      <c r="AF57" s="70"/>
+      <c r="AG57" s="70"/>
+      <c r="AH57" s="70"/>
+      <c r="AI57" s="70"/>
+      <c r="AJ57" s="70"/>
+      <c r="AK57" s="70"/>
+      <c r="AL57" s="70"/>
+      <c r="AM57" s="70"/>
+      <c r="AN57" s="70"/>
+      <c r="AO57" s="70"/>
       <c r="AP57" s="7"/>
     </row>
     <row r="58" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="110"/>
-      <c r="L58" s="110"/>
-      <c r="M58" s="110" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="N58" s="110"/>
-      <c r="O58" s="110"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="110"/>
-      <c r="S58" s="110"/>
-      <c r="T58" s="110"/>
-      <c r="U58" s="110"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
-      <c r="X58" s="110"/>
-      <c r="Y58" s="110"/>
-      <c r="Z58" s="110"/>
-      <c r="AA58" s="110"/>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="110"/>
-      <c r="AE58" s="110"/>
-      <c r="AF58" s="110"/>
-      <c r="AG58" s="110"/>
-      <c r="AH58" s="110"/>
-      <c r="AI58" s="110"/>
-      <c r="AJ58" s="110"/>
-      <c r="AK58" s="110"/>
-      <c r="AL58" s="110"/>
-      <c r="AM58" s="110"/>
-      <c r="AN58" s="110"/>
-      <c r="AO58" s="110"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="44"/>
+      <c r="AN58" s="44"/>
+      <c r="AO58" s="44"/>
       <c r="AP58" s="13"/>
     </row>
     <row r="59" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70"/>
+      <c r="X59" s="70"/>
+      <c r="Y59" s="70"/>
+      <c r="Z59" s="70"/>
+      <c r="AA59" s="70"/>
+      <c r="AB59" s="70"/>
+      <c r="AC59" s="70"/>
+      <c r="AD59" s="70"/>
+      <c r="AE59" s="70"/>
+      <c r="AF59" s="70"/>
+      <c r="AG59" s="70"/>
+      <c r="AH59" s="70"/>
+      <c r="AI59" s="70"/>
+      <c r="AJ59" s="70"/>
+      <c r="AK59" s="70"/>
+      <c r="AL59" s="70"/>
+      <c r="AM59" s="70"/>
+      <c r="AN59" s="70"/>
+      <c r="AO59" s="70"/>
       <c r="AP59" s="7"/>
     </row>
     <row r="60" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
+      <c r="AD60" s="70"/>
+      <c r="AE60" s="70"/>
+      <c r="AF60" s="70"/>
+      <c r="AG60" s="70"/>
+      <c r="AH60" s="70"/>
+      <c r="AI60" s="70"/>
+      <c r="AJ60" s="70"/>
+      <c r="AK60" s="70"/>
+      <c r="AL60" s="70"/>
+      <c r="AM60" s="70"/>
+      <c r="AN60" s="70"/>
+      <c r="AO60" s="70"/>
       <c r="AP60" s="7"/>
     </row>
     <row r="61" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="39"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+      <c r="X61" s="70"/>
+      <c r="Y61" s="70"/>
+      <c r="Z61" s="70"/>
+      <c r="AA61" s="70"/>
+      <c r="AB61" s="70"/>
+      <c r="AC61" s="70"/>
+      <c r="AD61" s="70"/>
+      <c r="AE61" s="70"/>
+      <c r="AF61" s="70"/>
+      <c r="AG61" s="70"/>
+      <c r="AH61" s="70"/>
+      <c r="AI61" s="70"/>
+      <c r="AJ61" s="70"/>
+      <c r="AK61" s="70"/>
+      <c r="AL61" s="70"/>
+      <c r="AM61" s="70"/>
+      <c r="AN61" s="70"/>
+      <c r="AO61" s="70"/>
       <c r="AP61" s="7"/>
     </row>
     <row r="62" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
-      <c r="AB62" s="39"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="39"/>
-      <c r="AE62" s="39"/>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="39"/>
-      <c r="AJ62" s="39"/>
-      <c r="AK62" s="39"/>
-      <c r="AL62" s="39"/>
-      <c r="AM62" s="39"/>
-      <c r="AN62" s="39"/>
-      <c r="AO62" s="39"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="70"/>
+      <c r="AD62" s="70"/>
+      <c r="AE62" s="70"/>
+      <c r="AF62" s="70"/>
+      <c r="AG62" s="70"/>
+      <c r="AH62" s="70"/>
+      <c r="AI62" s="70"/>
+      <c r="AJ62" s="70"/>
+      <c r="AK62" s="70"/>
+      <c r="AL62" s="70"/>
+      <c r="AM62" s="70"/>
+      <c r="AN62" s="70"/>
+      <c r="AO62" s="70"/>
       <c r="AP62" s="7"/>
     </row>
     <row r="63" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="110"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="110"/>
-      <c r="H63" s="110" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="110"/>
-      <c r="J63" s="110"/>
-      <c r="K63" s="110"/>
-      <c r="L63" s="110"/>
-      <c r="M63" s="110"/>
-      <c r="N63" s="110"/>
-      <c r="O63" s="110"/>
-      <c r="P63" s="110"/>
-      <c r="Q63" s="110"/>
-      <c r="R63" s="110"/>
-      <c r="S63" s="110"/>
-      <c r="T63" s="110"/>
-      <c r="U63" s="110"/>
-      <c r="V63" s="110"/>
-      <c r="W63" s="110"/>
-      <c r="X63" s="110"/>
-      <c r="Y63" s="110"/>
-      <c r="Z63" s="110"/>
-      <c r="AA63" s="110"/>
-      <c r="AB63" s="110"/>
-      <c r="AC63" s="110"/>
-      <c r="AD63" s="110"/>
-      <c r="AE63" s="110"/>
-      <c r="AF63" s="110"/>
-      <c r="AG63" s="110"/>
-      <c r="AH63" s="110"/>
-      <c r="AI63" s="110"/>
-      <c r="AJ63" s="110"/>
-      <c r="AK63" s="110"/>
-      <c r="AL63" s="110"/>
-      <c r="AM63" s="110"/>
-      <c r="AN63" s="110"/>
-      <c r="AO63" s="110"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="44"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="44"/>
+      <c r="AJ63" s="44"/>
+      <c r="AK63" s="44"/>
+      <c r="AL63" s="44"/>
+      <c r="AM63" s="44"/>
+      <c r="AN63" s="44"/>
+      <c r="AO63" s="44"/>
       <c r="AP63" s="13"/>
     </row>
     <row r="64" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="39"/>
-      <c r="AI64" s="39"/>
-      <c r="AJ64" s="39"/>
-      <c r="AK64" s="39"/>
-      <c r="AL64" s="39"/>
-      <c r="AM64" s="39"/>
-      <c r="AN64" s="39"/>
-      <c r="AO64" s="39"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="70"/>
+      <c r="X64" s="70"/>
+      <c r="Y64" s="70"/>
+      <c r="Z64" s="70"/>
+      <c r="AA64" s="70"/>
+      <c r="AB64" s="70"/>
+      <c r="AC64" s="70"/>
+      <c r="AD64" s="70"/>
+      <c r="AE64" s="70"/>
+      <c r="AF64" s="70"/>
+      <c r="AG64" s="70"/>
+      <c r="AH64" s="70"/>
+      <c r="AI64" s="70"/>
+      <c r="AJ64" s="70"/>
+      <c r="AK64" s="70"/>
+      <c r="AL64" s="70"/>
+      <c r="AM64" s="70"/>
+      <c r="AN64" s="70"/>
+      <c r="AO64" s="70"/>
       <c r="AP64" s="7"/>
     </row>
     <row r="65" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="39"/>
-      <c r="AB65" s="39"/>
-      <c r="AC65" s="39"/>
-      <c r="AD65" s="39"/>
-      <c r="AE65" s="39"/>
-      <c r="AF65" s="39"/>
-      <c r="AG65" s="39"/>
-      <c r="AH65" s="39"/>
-      <c r="AI65" s="39"/>
-      <c r="AJ65" s="39"/>
-      <c r="AK65" s="39"/>
-      <c r="AL65" s="39"/>
-      <c r="AM65" s="39"/>
-      <c r="AN65" s="39"/>
-      <c r="AO65" s="39"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="70"/>
+      <c r="X65" s="70"/>
+      <c r="Y65" s="70"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="70"/>
+      <c r="AD65" s="70"/>
+      <c r="AE65" s="70"/>
+      <c r="AF65" s="70"/>
+      <c r="AG65" s="70"/>
+      <c r="AH65" s="70"/>
+      <c r="AI65" s="70"/>
+      <c r="AJ65" s="70"/>
+      <c r="AK65" s="70"/>
+      <c r="AL65" s="70"/>
+      <c r="AM65" s="70"/>
+      <c r="AN65" s="70"/>
+      <c r="AO65" s="70"/>
       <c r="AP65" s="7"/>
     </row>
     <row r="66" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="39"/>
-      <c r="AB66" s="39"/>
-      <c r="AC66" s="39"/>
-      <c r="AD66" s="39"/>
-      <c r="AE66" s="39"/>
-      <c r="AF66" s="39"/>
-      <c r="AG66" s="39"/>
-      <c r="AH66" s="39"/>
-      <c r="AI66" s="39"/>
-      <c r="AJ66" s="39"/>
-      <c r="AK66" s="39"/>
-      <c r="AL66" s="39"/>
-      <c r="AM66" s="39"/>
-      <c r="AN66" s="39"/>
-      <c r="AO66" s="39"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="70"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70"/>
+      <c r="V66" s="70"/>
+      <c r="W66" s="70"/>
+      <c r="X66" s="70"/>
+      <c r="Y66" s="70"/>
+      <c r="Z66" s="70"/>
+      <c r="AA66" s="70"/>
+      <c r="AB66" s="70"/>
+      <c r="AC66" s="70"/>
+      <c r="AD66" s="70"/>
+      <c r="AE66" s="70"/>
+      <c r="AF66" s="70"/>
+      <c r="AG66" s="70"/>
+      <c r="AH66" s="70"/>
+      <c r="AI66" s="70"/>
+      <c r="AJ66" s="70"/>
+      <c r="AK66" s="70"/>
+      <c r="AL66" s="70"/>
+      <c r="AM66" s="70"/>
+      <c r="AN66" s="70"/>
+      <c r="AO66" s="70"/>
       <c r="AP66" s="7"/>
     </row>
     <row r="67" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="110"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="110"/>
-      <c r="K67" s="110"/>
-      <c r="L67" s="110"/>
-      <c r="M67" s="110"/>
-      <c r="N67" s="110"/>
-      <c r="O67" s="110"/>
-      <c r="P67" s="110"/>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="110"/>
-      <c r="S67" s="110"/>
-      <c r="T67" s="110"/>
-      <c r="U67" s="110"/>
-      <c r="V67" s="110"/>
-      <c r="W67" s="110"/>
-      <c r="X67" s="110"/>
-      <c r="Y67" s="110"/>
-      <c r="Z67" s="110"/>
-      <c r="AA67" s="110"/>
-      <c r="AB67" s="110"/>
-      <c r="AC67" s="110"/>
-      <c r="AD67" s="110"/>
-      <c r="AE67" s="110"/>
-      <c r="AF67" s="110"/>
-      <c r="AG67" s="110"/>
-      <c r="AH67" s="110"/>
-      <c r="AI67" s="110"/>
-      <c r="AJ67" s="110"/>
-      <c r="AK67" s="110"/>
-      <c r="AL67" s="110"/>
-      <c r="AM67" s="110"/>
-      <c r="AN67" s="110"/>
-      <c r="AO67" s="110"/>
-      <c r="AP67" s="111"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="44"/>
+      <c r="AD67" s="44"/>
+      <c r="AE67" s="44"/>
+      <c r="AF67" s="44"/>
+      <c r="AG67" s="44"/>
+      <c r="AH67" s="44"/>
+      <c r="AI67" s="44"/>
+      <c r="AJ67" s="44"/>
+      <c r="AK67" s="44"/>
+      <c r="AL67" s="44"/>
+      <c r="AM67" s="44"/>
+      <c r="AN67" s="44"/>
+      <c r="AO67" s="44"/>
+      <c r="AP67" s="45"/>
     </row>
     <row r="68" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="39"/>
-      <c r="AM68" s="39"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="39"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="70"/>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="70"/>
+      <c r="Z68" s="70"/>
+      <c r="AA68" s="70"/>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="70"/>
+      <c r="AD68" s="70"/>
+      <c r="AE68" s="70"/>
+      <c r="AF68" s="70"/>
+      <c r="AG68" s="70"/>
+      <c r="AH68" s="70"/>
+      <c r="AI68" s="70"/>
+      <c r="AJ68" s="70"/>
+      <c r="AK68" s="70"/>
+      <c r="AL68" s="70"/>
+      <c r="AM68" s="70"/>
+      <c r="AN68" s="70"/>
+      <c r="AO68" s="70"/>
       <c r="AP68" s="7"/>
     </row>
     <row r="69" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="39"/>
-      <c r="AL69" s="39"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="39"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="70"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="70"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="70"/>
+      <c r="AA69" s="70"/>
+      <c r="AB69" s="70"/>
+      <c r="AC69" s="70"/>
+      <c r="AD69" s="70"/>
+      <c r="AE69" s="70"/>
+      <c r="AF69" s="70"/>
+      <c r="AG69" s="70"/>
+      <c r="AH69" s="70"/>
+      <c r="AI69" s="70"/>
+      <c r="AJ69" s="70"/>
+      <c r="AK69" s="70"/>
+      <c r="AL69" s="70"/>
+      <c r="AM69" s="70"/>
+      <c r="AN69" s="70"/>
+      <c r="AO69" s="70"/>
       <c r="AP69" s="7"/>
     </row>
     <row r="70" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="40"/>
-      <c r="AB70" s="40"/>
-      <c r="AC70" s="40"/>
-      <c r="AD70" s="40"/>
-      <c r="AE70" s="40"/>
-      <c r="AF70" s="40"/>
-      <c r="AG70" s="40"/>
-      <c r="AH70" s="40"/>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="40"/>
-      <c r="AK70" s="40"/>
-      <c r="AL70" s="40"/>
-      <c r="AM70" s="40"/>
-      <c r="AN70" s="40"/>
-      <c r="AO70" s="40"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="111"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="111"/>
+      <c r="M70" s="111"/>
+      <c r="N70" s="111"/>
+      <c r="O70" s="111"/>
+      <c r="P70" s="111"/>
+      <c r="Q70" s="111"/>
+      <c r="R70" s="111"/>
+      <c r="S70" s="111"/>
+      <c r="T70" s="111"/>
+      <c r="U70" s="111"/>
+      <c r="V70" s="111"/>
+      <c r="W70" s="111"/>
+      <c r="X70" s="111"/>
+      <c r="Y70" s="111"/>
+      <c r="Z70" s="111"/>
+      <c r="AA70" s="111"/>
+      <c r="AB70" s="111"/>
+      <c r="AC70" s="111"/>
+      <c r="AD70" s="111"/>
+      <c r="AE70" s="111"/>
+      <c r="AF70" s="111"/>
+      <c r="AG70" s="111"/>
+      <c r="AH70" s="111"/>
+      <c r="AI70" s="111"/>
+      <c r="AJ70" s="111"/>
+      <c r="AK70" s="111"/>
+      <c r="AL70" s="111"/>
+      <c r="AM70" s="111"/>
+      <c r="AN70" s="111"/>
+      <c r="AO70" s="111"/>
       <c r="AP70" s="10"/>
     </row>
     <row r="71" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="B68:AO68"/>
+    <mergeCell ref="B69:AO69"/>
+    <mergeCell ref="B70:AO70"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B64:AO64"/>
+    <mergeCell ref="B65:AO65"/>
+    <mergeCell ref="B57:AO57"/>
+    <mergeCell ref="B59:AO59"/>
+    <mergeCell ref="B60:AO60"/>
+    <mergeCell ref="B61:AO61"/>
+    <mergeCell ref="B62:AO62"/>
+    <mergeCell ref="A37:AP37"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:AO39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:AO43"/>
+    <mergeCell ref="B46:AO46"/>
+    <mergeCell ref="B47:AO47"/>
+    <mergeCell ref="B48:AO48"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:AO41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:AP38"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:AO42"/>
+    <mergeCell ref="I22:AO22"/>
+    <mergeCell ref="I23:AO23"/>
+    <mergeCell ref="I24:AO24"/>
+    <mergeCell ref="I25:AO25"/>
+    <mergeCell ref="I26:AO26"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I32:AO32"/>
+    <mergeCell ref="I33:AO33"/>
+    <mergeCell ref="I34:AO34"/>
+    <mergeCell ref="I35:AO35"/>
+    <mergeCell ref="I36:AO36"/>
+    <mergeCell ref="I27:AO27"/>
+    <mergeCell ref="I28:AO28"/>
+    <mergeCell ref="I29:AO29"/>
+    <mergeCell ref="I30:AO30"/>
+    <mergeCell ref="I18:AO18"/>
+    <mergeCell ref="I19:AO19"/>
+    <mergeCell ref="I20:AO20"/>
+    <mergeCell ref="I21:AO21"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I31:AO31"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AI14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AO15"/>
+    <mergeCell ref="E12:AF12"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AI10:AK11"/>
+    <mergeCell ref="AM10:AO11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="B10:AF11"/>
+    <mergeCell ref="E8:AF8"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AC5:AF6"/>
+    <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="B14:AF15"/>
+    <mergeCell ref="H17:AP17"/>
+    <mergeCell ref="A67:AP67"/>
+    <mergeCell ref="A45:AP45"/>
+    <mergeCell ref="B49:AO49"/>
+    <mergeCell ref="B50:AO50"/>
+    <mergeCell ref="B52:AO52"/>
+    <mergeCell ref="B53:AO53"/>
+    <mergeCell ref="B54:AO54"/>
+    <mergeCell ref="B55:AO55"/>
+    <mergeCell ref="B56:AO56"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="H63:AO63"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M58:AO58"/>
+    <mergeCell ref="B66:AO66"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="F7:O7"/>
@@ -5841,144 +5979,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="T5:U6"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="B14:AF15"/>
-    <mergeCell ref="H17:AP17"/>
-    <mergeCell ref="A67:AP67"/>
-    <mergeCell ref="A45:AP45"/>
-    <mergeCell ref="B49:AO49"/>
-    <mergeCell ref="B50:AO50"/>
-    <mergeCell ref="B52:AO52"/>
-    <mergeCell ref="B53:AO53"/>
-    <mergeCell ref="B54:AO54"/>
-    <mergeCell ref="B55:AO55"/>
-    <mergeCell ref="B56:AO56"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="H63:AO63"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M58:AO58"/>
-    <mergeCell ref="B66:AO66"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AI14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AO15"/>
-    <mergeCell ref="E12:AF12"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AI10:AK11"/>
-    <mergeCell ref="AM10:AO11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="B10:AF11"/>
-    <mergeCell ref="E8:AF8"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AC5:AF6"/>
-    <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="I18:AO18"/>
-    <mergeCell ref="I19:AO19"/>
-    <mergeCell ref="I20:AO20"/>
-    <mergeCell ref="I21:AO21"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I31:AO31"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:AP38"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:AO42"/>
-    <mergeCell ref="I22:AO22"/>
-    <mergeCell ref="I23:AO23"/>
-    <mergeCell ref="I24:AO24"/>
-    <mergeCell ref="I25:AO25"/>
-    <mergeCell ref="I26:AO26"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I32:AO32"/>
-    <mergeCell ref="I33:AO33"/>
-    <mergeCell ref="I34:AO34"/>
-    <mergeCell ref="I35:AO35"/>
-    <mergeCell ref="I36:AO36"/>
-    <mergeCell ref="I27:AO27"/>
-    <mergeCell ref="I28:AO28"/>
-    <mergeCell ref="I29:AO29"/>
-    <mergeCell ref="I30:AO30"/>
-    <mergeCell ref="I39:AO39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:AO43"/>
-    <mergeCell ref="B46:AO46"/>
-    <mergeCell ref="B47:AO47"/>
-    <mergeCell ref="B48:AO48"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:AO41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B68:AO68"/>
-    <mergeCell ref="B69:AO69"/>
-    <mergeCell ref="B70:AO70"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B64:AO64"/>
-    <mergeCell ref="B65:AO65"/>
-    <mergeCell ref="B57:AO57"/>
-    <mergeCell ref="B59:AO59"/>
-    <mergeCell ref="B60:AO60"/>
-    <mergeCell ref="B61:AO61"/>
-    <mergeCell ref="B62:AO62"/>
-    <mergeCell ref="A37:AP37"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5997,6 +5997,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D1266C95EBDAC847AAE5B930B68636E4" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="bdd9ca8ca813a0a54e16da0f1599d412">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="adcffb59-0e2d-4553-ba38-26ed6624e10e" xmlns:ns3="d9103df5-c2af-4ff0-adcb-48a3da8eb3e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21d4d69ff5a966c9153f84cacae5c454" ns2:_="" ns3:_="">
     <xsd:import namespace="adcffb59-0e2d-4553-ba38-26ed6624e10e"/>
@@ -6197,15 +6206,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6218,6 +6218,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A16876-7F08-439A-9941-7EE13ED832D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC195625-4883-4E1F-90A1-0966DEA0100A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6232,14 +6240,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A16876-7F08-439A-9941-7EE13ED832D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
+++ b/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2209423\Documents\GitHub\Tsukamoto_Takumi_Game_Program\麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC312692-8F28-403B-877B-F25E034864B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098941A-E15E-4643-8457-CF90B31BC273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,35 +1075,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>21</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私は、貴社が掲げる「みんなを楽しませドキドキさせたい」という理念に深く共感し、志望いたしました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初めて買ったゲームを家に持ち帰る時のドキドキ感は今でも忘れられず、それが私のゲームに対する情熱の原点となっています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今でも新作ゲームを手にするたびに感じるあの興奮を、今度は開発者として多くのユーザーに届けたいと強く願っています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そのような中でユーザーにいつまでも楽しまれるゲーム開発に貢献したいと考えます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、貴社のゲームだけでなく、ホームページやプロモーションにも「ドキドキ」を大切にする姿勢が感じられる点に魅力を感じております。</t>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は、貴社の説明会でチームで綿密に話し合いながら開発を進める姿に惹かれ志望しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はチームで開発した経験がありますが、その際はデザイナー・プランナーのこだわりを尊重してゲームを作ることを心掛けています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのこだわりを実現させることができた時は非常に嬉しく思い、社会に出てもこだわりを実現したいと考えております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私もチーム一丸となって開発者の思いを実現させる技術者となりたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貴社は業界随一の移植の技術を持ち、移植する際は元の開発者のこだわりや大切にしている事も移植する必要があると思います。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1638,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1756,6 +1756,9 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,9 +1852,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,6 +2007,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2496,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP71"/>
+  <dimension ref="A1:CE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="B46" sqref="B46:AO46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2534,14 +2537,14 @@
         <v>2</v>
       </c>
       <c r="Y1" s="113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="113"/>
       <c r="AA1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="AB1" s="113" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="113"/>
       <c r="AD1" s="112" t="s">
@@ -2554,33 +2557,33 @@
       <c r="A2" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
       <c r="AA2" s="30"/>
@@ -2601,40 +2604,40 @@
       <c r="AP2" s="1"/>
     </row>
     <row r="3" spans="1:42" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="49"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -2693,50 +2696,50 @@
       <c r="AP4" s="1"/>
     </row>
     <row r="5" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="50" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="50" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50" t="s">
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="50"/>
-      <c r="T5" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="50" t="s">
+      <c r="S5" s="51"/>
+      <c r="T5" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="53"/>
+      <c r="V5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50" t="s">
+      <c r="W5" s="51"/>
+      <c r="X5" s="51" t="s">
         <v>19</v>
       </c>
       <c r="Y5" s="27"/>
@@ -2763,30 +2766,30 @@
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="28"/>
       <c r="AA6" s="29"/>
@@ -2814,18 +2817,18 @@
       <c r="C7" s="120"/>
       <c r="D7" s="120"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
@@ -2837,12 +2840,12 @@
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="17"/>
-      <c r="AA7" s="58" t="s">
+      <c r="AA7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
       <c r="AE7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2928,19 +2931,19 @@
       <c r="E9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="49" t="s">
+      <c r="I9" s="67"/>
+      <c r="J9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="14" t="s">
         <v>19</v>
       </c>
@@ -2982,39 +2985,39 @@
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="82"/>
@@ -3030,46 +3033,46 @@
     </row>
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="12"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
       <c r="AP11" s="21"/>
     </row>
     <row r="12" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3132,19 +3135,19 @@
       <c r="E13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="49" t="s">
+      <c r="I13" s="67"/>
+      <c r="J13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="14" t="s">
         <v>19</v>
       </c>
@@ -3186,39 +3189,39 @@
     </row>
     <row r="14" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="82"/>
@@ -3234,46 +3237,46 @@
     </row>
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="12"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="53"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
       <c r="AP15" s="21"/>
     </row>
     <row r="16" spans="1:42" ht="6.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3321,62 +3324,62 @@
       <c r="AP16" s="1"/>
     </row>
     <row r="17" spans="1:42" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="58" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="57" t="s">
+      <c r="G17" s="70"/>
+      <c r="H17" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="69"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="70"/>
     </row>
     <row r="18" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="101"/>
       <c r="H18" s="23"/>
       <c r="I18" s="97" t="s">
@@ -3417,14 +3420,14 @@
       <c r="AP18" s="22"/>
     </row>
     <row r="19" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="99"/>
@@ -3467,14 +3470,14 @@
       <c r="AP19" s="7"/>
     </row>
     <row r="20" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="55" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="99"/>
@@ -3517,14 +3520,14 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="55" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="56" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="99"/>
@@ -3567,14 +3570,14 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="55" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="56" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="99"/>
@@ -3617,14 +3620,14 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="55" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="99"/>
@@ -3667,12 +3670,12 @@
       <c r="AP23" s="7"/>
     </row>
     <row r="24" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="55"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="99"/>
       <c r="H24" s="24"/>
       <c r="I24" s="103" t="s">
@@ -3713,14 +3716,14 @@
       <c r="AP24" s="7"/>
     </row>
     <row r="25" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="55" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="99"/>
@@ -3763,14 +3766,14 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="55" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="99"/>
@@ -3813,12 +3816,12 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="55"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="99"/>
       <c r="H27" s="24"/>
       <c r="I27" s="100" t="s">
@@ -3859,12 +3862,12 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="55"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="99"/>
       <c r="H28" s="24"/>
       <c r="I28" s="98"/>
@@ -3903,12 +3906,12 @@
       <c r="AP28" s="7"/>
     </row>
     <row r="29" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="55"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="99"/>
       <c r="H29" s="24"/>
       <c r="I29" s="103"/>
@@ -3947,12 +3950,12 @@
       <c r="AP29" s="7"/>
     </row>
     <row r="30" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="99"/>
       <c r="H30" s="24"/>
       <c r="I30" s="98"/>
@@ -3991,12 +3994,12 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="55"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="99"/>
       <c r="H31" s="24"/>
       <c r="I31" s="100"/>
@@ -4035,12 +4038,12 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="55"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="99"/>
       <c r="H32" s="24"/>
       <c r="I32" s="98"/>
@@ -4078,13 +4081,13 @@
       <c r="AO32" s="98"/>
       <c r="AP32" s="7"/>
     </row>
-    <row r="33" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="55"/>
+    <row r="33" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="99"/>
       <c r="H33" s="24"/>
       <c r="I33" s="98"/>
@@ -4122,13 +4125,13 @@
       <c r="AO33" s="98"/>
       <c r="AP33" s="7"/>
     </row>
-    <row r="34" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="55"/>
+    <row r="34" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="99"/>
       <c r="H34" s="24"/>
       <c r="I34" s="98"/>
@@ -4166,13 +4169,13 @@
       <c r="AO34" s="98"/>
       <c r="AP34" s="7"/>
     </row>
-    <row r="35" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="55"/>
+    <row r="35" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="55"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="99"/>
       <c r="H35" s="24"/>
       <c r="I35" s="98"/>
@@ -4210,7 +4213,7 @@
       <c r="AO35" s="98"/>
       <c r="AP35" s="7"/>
     </row>
-    <row r="36" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="71"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -4254,7 +4257,7 @@
       <c r="AO36" s="105"/>
       <c r="AP36" s="8"/>
     </row>
-    <row r="37" spans="1:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:83" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="121" t="s">
         <v>56</v>
       </c>
@@ -4300,57 +4303,57 @@
       <c r="AO37" s="121"/>
       <c r="AP37" s="121"/>
     </row>
-    <row r="38" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="57" t="s">
+    <row r="38" spans="1:83" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="58" t="s">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="57" t="s">
+      <c r="G38" s="70"/>
+      <c r="H38" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="58"/>
-      <c r="X38" s="58"/>
-      <c r="Y38" s="58"/>
-      <c r="Z38" s="58"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
-      <c r="AJ38" s="58"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="58"/>
-      <c r="AM38" s="58"/>
-      <c r="AN38" s="58"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="69"/>
-    </row>
-    <row r="39" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="70"/>
+    </row>
+    <row r="39" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="74"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -4394,7 +4397,7 @@
       <c r="AO39" s="84"/>
       <c r="AP39" s="22"/>
     </row>
-    <row r="40" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="77"/>
       <c r="B40" s="78"/>
       <c r="C40" s="78"/>
@@ -4403,42 +4406,42 @@
       <c r="F40" s="78"/>
       <c r="G40" s="102"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="43"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="43"/>
       <c r="AP40" s="7"/>
     </row>
-    <row r="41" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="77"/>
       <c r="B41" s="78"/>
       <c r="C41" s="78"/>
@@ -4447,42 +4450,42 @@
       <c r="F41" s="78"/>
       <c r="G41" s="102"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="42"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="42"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="42"/>
-      <c r="AJ41" s="42"/>
-      <c r="AK41" s="42"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="42"/>
-      <c r="AO41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="43"/>
       <c r="AP41" s="7"/>
     </row>
-    <row r="42" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="77"/>
       <c r="B42" s="78"/>
       <c r="C42" s="78"/>
@@ -4491,42 +4494,42 @@
       <c r="F42" s="78"/>
       <c r="G42" s="102"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
-      <c r="AH42" s="42"/>
-      <c r="AI42" s="42"/>
-      <c r="AJ42" s="42"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="43"/>
+      <c r="AN42" s="43"/>
+      <c r="AO42" s="43"/>
       <c r="AP42" s="7"/>
     </row>
-    <row r="43" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="109"/>
       <c r="B43" s="106"/>
       <c r="C43" s="106"/>
@@ -4570,7 +4573,7 @@
       <c r="AO43" s="108"/>
       <c r="AP43" s="10"/>
     </row>
-    <row r="44" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4614,1158 +4617,1197 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="43" t="s">
+    <row r="45" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="44"/>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
-      <c r="AK45" s="44"/>
-      <c r="AL45" s="44"/>
-      <c r="AM45" s="44"/>
-      <c r="AN45" s="44"/>
-      <c r="AO45" s="44"/>
-      <c r="AP45" s="45"/>
-    </row>
-    <row r="46" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="45"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="45"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="45"/>
+      <c r="AM45" s="45"/>
+      <c r="AN45" s="45"/>
+      <c r="AO45" s="45"/>
+      <c r="AP45" s="46"/>
+    </row>
+    <row r="46" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="70"/>
-      <c r="V46" s="70"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
-      <c r="Y46" s="70"/>
-      <c r="Z46" s="70"/>
-      <c r="AA46" s="70"/>
-      <c r="AB46" s="70"/>
-      <c r="AC46" s="70"/>
-      <c r="AD46" s="70"/>
-      <c r="AE46" s="70"/>
-      <c r="AF46" s="70"/>
-      <c r="AG46" s="70"/>
-      <c r="AH46" s="70"/>
-      <c r="AI46" s="70"/>
-      <c r="AJ46" s="70"/>
-      <c r="AK46" s="70"/>
-      <c r="AL46" s="70"/>
-      <c r="AM46" s="70"/>
-      <c r="AN46" s="70"/>
-      <c r="AO46" s="70"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="39"/>
+      <c r="AM46" s="39"/>
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="39"/>
       <c r="AP46" s="7"/>
-    </row>
-    <row r="47" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AS46" s="123"/>
+      <c r="AT46" s="123"/>
+      <c r="AU46" s="123"/>
+      <c r="AV46" s="123"/>
+      <c r="AW46" s="123"/>
+      <c r="AX46" s="123"/>
+      <c r="AY46" s="123"/>
+      <c r="AZ46" s="123"/>
+      <c r="BA46" s="123"/>
+      <c r="BB46" s="123"/>
+      <c r="BC46" s="123"/>
+      <c r="BD46" s="123"/>
+      <c r="BE46" s="123"/>
+      <c r="BF46" s="123"/>
+      <c r="BG46" s="123"/>
+      <c r="BH46" s="123"/>
+      <c r="BI46" s="123"/>
+      <c r="BJ46" s="123"/>
+      <c r="BK46" s="123"/>
+      <c r="BL46" s="123"/>
+      <c r="BM46" s="123"/>
+      <c r="BN46" s="123"/>
+      <c r="BO46" s="123"/>
+      <c r="BP46" s="123"/>
+      <c r="BQ46" s="123"/>
+      <c r="BR46" s="123"/>
+      <c r="BS46" s="123"/>
+      <c r="BT46" s="123"/>
+      <c r="BU46" s="123"/>
+      <c r="BV46" s="123"/>
+      <c r="BW46" s="123"/>
+      <c r="BX46" s="123"/>
+      <c r="BY46" s="123"/>
+      <c r="BZ46" s="123"/>
+      <c r="CA46" s="123"/>
+      <c r="CB46" s="123"/>
+      <c r="CC46" s="123"/>
+      <c r="CD46" s="123"/>
+      <c r="CE46" s="123"/>
+    </row>
+    <row r="47" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
-      <c r="Y47" s="70"/>
-      <c r="Z47" s="70"/>
-      <c r="AA47" s="70"/>
-      <c r="AB47" s="70"/>
-      <c r="AC47" s="70"/>
-      <c r="AD47" s="70"/>
-      <c r="AE47" s="70"/>
-      <c r="AF47" s="70"/>
-      <c r="AG47" s="70"/>
-      <c r="AH47" s="70"/>
-      <c r="AI47" s="70"/>
-      <c r="AJ47" s="70"/>
-      <c r="AK47" s="70"/>
-      <c r="AL47" s="70"/>
-      <c r="AM47" s="70"/>
-      <c r="AN47" s="70"/>
-      <c r="AO47" s="70"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
       <c r="AP47" s="7"/>
     </row>
-    <row r="48" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="70"/>
-      <c r="AC48" s="70"/>
-      <c r="AD48" s="70"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="70"/>
-      <c r="AG48" s="70"/>
-      <c r="AH48" s="70"/>
-      <c r="AI48" s="70"/>
-      <c r="AJ48" s="70"/>
-      <c r="AK48" s="70"/>
-      <c r="AL48" s="70"/>
-      <c r="AM48" s="70"/>
-      <c r="AN48" s="70"/>
-      <c r="AO48" s="70"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
+      <c r="AM48" s="39"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="39"/>
       <c r="AP48" s="7"/>
     </row>
     <row r="49" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="70"/>
-      <c r="V49" s="70"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
-      <c r="Y49" s="70"/>
-      <c r="Z49" s="70"/>
-      <c r="AA49" s="70"/>
-      <c r="AB49" s="70"/>
-      <c r="AC49" s="70"/>
-      <c r="AD49" s="70"/>
-      <c r="AE49" s="70"/>
-      <c r="AF49" s="70"/>
-      <c r="AG49" s="70"/>
-      <c r="AH49" s="70"/>
-      <c r="AI49" s="70"/>
-      <c r="AJ49" s="70"/>
-      <c r="AK49" s="70"/>
-      <c r="AL49" s="70"/>
-      <c r="AM49" s="70"/>
-      <c r="AN49" s="70"/>
-      <c r="AO49" s="70"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39"/>
       <c r="AP49" s="7"/>
     </row>
     <row r="50" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="70"/>
-      <c r="T50" s="70"/>
-      <c r="U50" s="70"/>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
-      <c r="Y50" s="70"/>
-      <c r="Z50" s="70"/>
-      <c r="AA50" s="70"/>
-      <c r="AB50" s="70"/>
-      <c r="AC50" s="70"/>
-      <c r="AD50" s="70"/>
-      <c r="AE50" s="70"/>
-      <c r="AF50" s="70"/>
-      <c r="AG50" s="70"/>
-      <c r="AH50" s="70"/>
-      <c r="AI50" s="70"/>
-      <c r="AJ50" s="70"/>
-      <c r="AK50" s="70"/>
-      <c r="AL50" s="70"/>
-      <c r="AM50" s="70"/>
-      <c r="AN50" s="70"/>
-      <c r="AO50" s="70"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39"/>
+      <c r="AM50" s="39"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="39"/>
       <c r="AP50" s="7"/>
     </row>
     <row r="51" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="44"/>
-      <c r="AC51" s="44"/>
-      <c r="AD51" s="44"/>
-      <c r="AE51" s="44"/>
-      <c r="AF51" s="44"/>
-      <c r="AG51" s="44"/>
-      <c r="AH51" s="44"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="44"/>
-      <c r="AN51" s="44"/>
-      <c r="AO51" s="44"/>
-      <c r="AP51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="45"/>
+      <c r="AF51" s="45"/>
+      <c r="AG51" s="45"/>
+      <c r="AH51" s="45"/>
+      <c r="AI51" s="45"/>
+      <c r="AJ51" s="45"/>
+      <c r="AK51" s="45"/>
+      <c r="AL51" s="45"/>
+      <c r="AM51" s="45"/>
+      <c r="AN51" s="45"/>
+      <c r="AO51" s="45"/>
+      <c r="AP51" s="46"/>
     </row>
     <row r="52" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="70"/>
-      <c r="Z52" s="70"/>
-      <c r="AA52" s="70"/>
-      <c r="AB52" s="70"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="70"/>
-      <c r="AE52" s="70"/>
-      <c r="AF52" s="70"/>
-      <c r="AG52" s="70"/>
-      <c r="AH52" s="70"/>
-      <c r="AI52" s="70"/>
-      <c r="AJ52" s="70"/>
-      <c r="AK52" s="70"/>
-      <c r="AL52" s="70"/>
-      <c r="AM52" s="70"/>
-      <c r="AN52" s="70"/>
-      <c r="AO52" s="70"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="39"/>
+      <c r="AM52" s="39"/>
+      <c r="AN52" s="39"/>
+      <c r="AO52" s="39"/>
       <c r="AP52" s="7"/>
     </row>
     <row r="53" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="70"/>
-      <c r="AE53" s="70"/>
-      <c r="AF53" s="70"/>
-      <c r="AG53" s="70"/>
-      <c r="AH53" s="70"/>
-      <c r="AI53" s="70"/>
-      <c r="AJ53" s="70"/>
-      <c r="AK53" s="70"/>
-      <c r="AL53" s="70"/>
-      <c r="AM53" s="70"/>
-      <c r="AN53" s="70"/>
-      <c r="AO53" s="70"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39"/>
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39"/>
       <c r="AP53" s="7"/>
     </row>
     <row r="54" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="70"/>
-      <c r="AE54" s="70"/>
-      <c r="AF54" s="70"/>
-      <c r="AG54" s="70"/>
-      <c r="AH54" s="70"/>
-      <c r="AI54" s="70"/>
-      <c r="AJ54" s="70"/>
-      <c r="AK54" s="70"/>
-      <c r="AL54" s="70"/>
-      <c r="AM54" s="70"/>
-      <c r="AN54" s="70"/>
-      <c r="AO54" s="70"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="39"/>
+      <c r="AL54" s="39"/>
+      <c r="AM54" s="39"/>
+      <c r="AN54" s="39"/>
+      <c r="AO54" s="39"/>
       <c r="AP54" s="7"/>
     </row>
     <row r="55" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="70"/>
-      <c r="AB55" s="70"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="70"/>
-      <c r="AE55" s="70"/>
-      <c r="AF55" s="70"/>
-      <c r="AG55" s="70"/>
-      <c r="AH55" s="70"/>
-      <c r="AI55" s="70"/>
-      <c r="AJ55" s="70"/>
-      <c r="AK55" s="70"/>
-      <c r="AL55" s="70"/>
-      <c r="AM55" s="70"/>
-      <c r="AN55" s="70"/>
-      <c r="AO55" s="70"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39"/>
       <c r="AP55" s="7"/>
     </row>
     <row r="56" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="70"/>
-      <c r="AB56" s="70"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="70"/>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="70"/>
-      <c r="AG56" s="70"/>
-      <c r="AH56" s="70"/>
-      <c r="AI56" s="70"/>
-      <c r="AJ56" s="70"/>
-      <c r="AK56" s="70"/>
-      <c r="AL56" s="70"/>
-      <c r="AM56" s="70"/>
-      <c r="AN56" s="70"/>
-      <c r="AO56" s="70"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="39"/>
+      <c r="AL56" s="39"/>
+      <c r="AM56" s="39"/>
+      <c r="AN56" s="39"/>
+      <c r="AO56" s="39"/>
       <c r="AP56" s="7"/>
     </row>
     <row r="57" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="70"/>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="70"/>
-      <c r="AG57" s="70"/>
-      <c r="AH57" s="70"/>
-      <c r="AI57" s="70"/>
-      <c r="AJ57" s="70"/>
-      <c r="AK57" s="70"/>
-      <c r="AL57" s="70"/>
-      <c r="AM57" s="70"/>
-      <c r="AN57" s="70"/>
-      <c r="AO57" s="70"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="39"/>
+      <c r="AH57" s="39"/>
+      <c r="AI57" s="39"/>
+      <c r="AJ57" s="39"/>
+      <c r="AK57" s="39"/>
+      <c r="AL57" s="39"/>
+      <c r="AM57" s="39"/>
+      <c r="AN57" s="39"/>
+      <c r="AO57" s="39"/>
       <c r="AP57" s="7"/>
     </row>
     <row r="58" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44" t="s">
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="44"/>
-      <c r="AB58" s="44"/>
-      <c r="AC58" s="44"/>
-      <c r="AD58" s="44"/>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="44"/>
-      <c r="AG58" s="44"/>
-      <c r="AH58" s="44"/>
-      <c r="AI58" s="44"/>
-      <c r="AJ58" s="44"/>
-      <c r="AK58" s="44"/>
-      <c r="AL58" s="44"/>
-      <c r="AM58" s="44"/>
-      <c r="AN58" s="44"/>
-      <c r="AO58" s="44"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="45"/>
+      <c r="AA58" s="45"/>
+      <c r="AB58" s="45"/>
+      <c r="AC58" s="45"/>
+      <c r="AD58" s="45"/>
+      <c r="AE58" s="45"/>
+      <c r="AF58" s="45"/>
+      <c r="AG58" s="45"/>
+      <c r="AH58" s="45"/>
+      <c r="AI58" s="45"/>
+      <c r="AJ58" s="45"/>
+      <c r="AK58" s="45"/>
+      <c r="AL58" s="45"/>
+      <c r="AM58" s="45"/>
+      <c r="AN58" s="45"/>
+      <c r="AO58" s="45"/>
       <c r="AP58" s="13"/>
     </row>
     <row r="59" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="70"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="70"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="70"/>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="70"/>
-      <c r="AG59" s="70"/>
-      <c r="AH59" s="70"/>
-      <c r="AI59" s="70"/>
-      <c r="AJ59" s="70"/>
-      <c r="AK59" s="70"/>
-      <c r="AL59" s="70"/>
-      <c r="AM59" s="70"/>
-      <c r="AN59" s="70"/>
-      <c r="AO59" s="70"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="39"/>
+      <c r="AK59" s="39"/>
+      <c r="AL59" s="39"/>
+      <c r="AM59" s="39"/>
+      <c r="AN59" s="39"/>
+      <c r="AO59" s="39"/>
       <c r="AP59" s="7"/>
     </row>
     <row r="60" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="70"/>
-      <c r="S60" s="70"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="70"/>
-      <c r="AE60" s="70"/>
-      <c r="AF60" s="70"/>
-      <c r="AG60" s="70"/>
-      <c r="AH60" s="70"/>
-      <c r="AI60" s="70"/>
-      <c r="AJ60" s="70"/>
-      <c r="AK60" s="70"/>
-      <c r="AL60" s="70"/>
-      <c r="AM60" s="70"/>
-      <c r="AN60" s="70"/>
-      <c r="AO60" s="70"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="39"/>
+      <c r="AK60" s="39"/>
+      <c r="AL60" s="39"/>
+      <c r="AM60" s="39"/>
+      <c r="AN60" s="39"/>
+      <c r="AO60" s="39"/>
       <c r="AP60" s="7"/>
     </row>
     <row r="61" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="70"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="70"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="70"/>
-      <c r="AE61" s="70"/>
-      <c r="AF61" s="70"/>
-      <c r="AG61" s="70"/>
-      <c r="AH61" s="70"/>
-      <c r="AI61" s="70"/>
-      <c r="AJ61" s="70"/>
-      <c r="AK61" s="70"/>
-      <c r="AL61" s="70"/>
-      <c r="AM61" s="70"/>
-      <c r="AN61" s="70"/>
-      <c r="AO61" s="70"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
+      <c r="AB61" s="39"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="39"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="39"/>
+      <c r="AH61" s="39"/>
+      <c r="AI61" s="39"/>
+      <c r="AJ61" s="39"/>
+      <c r="AK61" s="39"/>
+      <c r="AL61" s="39"/>
+      <c r="AM61" s="39"/>
+      <c r="AN61" s="39"/>
+      <c r="AO61" s="39"/>
       <c r="AP61" s="7"/>
     </row>
     <row r="62" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="70"/>
-      <c r="S62" s="70"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="70"/>
-      <c r="AE62" s="70"/>
-      <c r="AF62" s="70"/>
-      <c r="AG62" s="70"/>
-      <c r="AH62" s="70"/>
-      <c r="AI62" s="70"/>
-      <c r="AJ62" s="70"/>
-      <c r="AK62" s="70"/>
-      <c r="AL62" s="70"/>
-      <c r="AM62" s="70"/>
-      <c r="AN62" s="70"/>
-      <c r="AO62" s="70"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
+      <c r="AB62" s="39"/>
+      <c r="AC62" s="39"/>
+      <c r="AD62" s="39"/>
+      <c r="AE62" s="39"/>
+      <c r="AF62" s="39"/>
+      <c r="AG62" s="39"/>
+      <c r="AH62" s="39"/>
+      <c r="AI62" s="39"/>
+      <c r="AJ62" s="39"/>
+      <c r="AK62" s="39"/>
+      <c r="AL62" s="39"/>
+      <c r="AM62" s="39"/>
+      <c r="AN62" s="39"/>
+      <c r="AO62" s="39"/>
       <c r="AP62" s="7"/>
     </row>
     <row r="63" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44" t="s">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
-      <c r="X63" s="44"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
-      <c r="AA63" s="44"/>
-      <c r="AB63" s="44"/>
-      <c r="AC63" s="44"/>
-      <c r="AD63" s="44"/>
-      <c r="AE63" s="44"/>
-      <c r="AF63" s="44"/>
-      <c r="AG63" s="44"/>
-      <c r="AH63" s="44"/>
-      <c r="AI63" s="44"/>
-      <c r="AJ63" s="44"/>
-      <c r="AK63" s="44"/>
-      <c r="AL63" s="44"/>
-      <c r="AM63" s="44"/>
-      <c r="AN63" s="44"/>
-      <c r="AO63" s="44"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="45"/>
+      <c r="AB63" s="45"/>
+      <c r="AC63" s="45"/>
+      <c r="AD63" s="45"/>
+      <c r="AE63" s="45"/>
+      <c r="AF63" s="45"/>
+      <c r="AG63" s="45"/>
+      <c r="AH63" s="45"/>
+      <c r="AI63" s="45"/>
+      <c r="AJ63" s="45"/>
+      <c r="AK63" s="45"/>
+      <c r="AL63" s="45"/>
+      <c r="AM63" s="45"/>
+      <c r="AN63" s="45"/>
+      <c r="AO63" s="45"/>
       <c r="AP63" s="13"/>
     </row>
     <row r="64" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
-      <c r="B64" s="70" t="s">
+      <c r="B64" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
-      <c r="S64" s="70"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="70"/>
-      <c r="V64" s="70"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="70"/>
-      <c r="Y64" s="70"/>
-      <c r="Z64" s="70"/>
-      <c r="AA64" s="70"/>
-      <c r="AB64" s="70"/>
-      <c r="AC64" s="70"/>
-      <c r="AD64" s="70"/>
-      <c r="AE64" s="70"/>
-      <c r="AF64" s="70"/>
-      <c r="AG64" s="70"/>
-      <c r="AH64" s="70"/>
-      <c r="AI64" s="70"/>
-      <c r="AJ64" s="70"/>
-      <c r="AK64" s="70"/>
-      <c r="AL64" s="70"/>
-      <c r="AM64" s="70"/>
-      <c r="AN64" s="70"/>
-      <c r="AO64" s="70"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="39"/>
+      <c r="AI64" s="39"/>
+      <c r="AJ64" s="39"/>
+      <c r="AK64" s="39"/>
+      <c r="AL64" s="39"/>
+      <c r="AM64" s="39"/>
+      <c r="AN64" s="39"/>
+      <c r="AO64" s="39"/>
       <c r="AP64" s="7"/>
     </row>
     <row r="65" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="70"/>
-      <c r="S65" s="70"/>
-      <c r="T65" s="70"/>
-      <c r="U65" s="70"/>
-      <c r="V65" s="70"/>
-      <c r="W65" s="70"/>
-      <c r="X65" s="70"/>
-      <c r="Y65" s="70"/>
-      <c r="Z65" s="70"/>
-      <c r="AA65" s="70"/>
-      <c r="AB65" s="70"/>
-      <c r="AC65" s="70"/>
-      <c r="AD65" s="70"/>
-      <c r="AE65" s="70"/>
-      <c r="AF65" s="70"/>
-      <c r="AG65" s="70"/>
-      <c r="AH65" s="70"/>
-      <c r="AI65" s="70"/>
-      <c r="AJ65" s="70"/>
-      <c r="AK65" s="70"/>
-      <c r="AL65" s="70"/>
-      <c r="AM65" s="70"/>
-      <c r="AN65" s="70"/>
-      <c r="AO65" s="70"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="39"/>
+      <c r="AF65" s="39"/>
+      <c r="AG65" s="39"/>
+      <c r="AH65" s="39"/>
+      <c r="AI65" s="39"/>
+      <c r="AJ65" s="39"/>
+      <c r="AK65" s="39"/>
+      <c r="AL65" s="39"/>
+      <c r="AM65" s="39"/>
+      <c r="AN65" s="39"/>
+      <c r="AO65" s="39"/>
       <c r="AP65" s="7"/>
     </row>
     <row r="66" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="70"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="70"/>
-      <c r="S66" s="70"/>
-      <c r="T66" s="70"/>
-      <c r="U66" s="70"/>
-      <c r="V66" s="70"/>
-      <c r="W66" s="70"/>
-      <c r="X66" s="70"/>
-      <c r="Y66" s="70"/>
-      <c r="Z66" s="70"/>
-      <c r="AA66" s="70"/>
-      <c r="AB66" s="70"/>
-      <c r="AC66" s="70"/>
-      <c r="AD66" s="70"/>
-      <c r="AE66" s="70"/>
-      <c r="AF66" s="70"/>
-      <c r="AG66" s="70"/>
-      <c r="AH66" s="70"/>
-      <c r="AI66" s="70"/>
-      <c r="AJ66" s="70"/>
-      <c r="AK66" s="70"/>
-      <c r="AL66" s="70"/>
-      <c r="AM66" s="70"/>
-      <c r="AN66" s="70"/>
-      <c r="AO66" s="70"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="39"/>
+      <c r="AI66" s="39"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="39"/>
+      <c r="AL66" s="39"/>
+      <c r="AM66" s="39"/>
+      <c r="AN66" s="39"/>
+      <c r="AO66" s="39"/>
       <c r="AP66" s="7"/>
     </row>
     <row r="67" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="44"/>
-      <c r="Z67" s="44"/>
-      <c r="AA67" s="44"/>
-      <c r="AB67" s="44"/>
-      <c r="AC67" s="44"/>
-      <c r="AD67" s="44"/>
-      <c r="AE67" s="44"/>
-      <c r="AF67" s="44"/>
-      <c r="AG67" s="44"/>
-      <c r="AH67" s="44"/>
-      <c r="AI67" s="44"/>
-      <c r="AJ67" s="44"/>
-      <c r="AK67" s="44"/>
-      <c r="AL67" s="44"/>
-      <c r="AM67" s="44"/>
-      <c r="AN67" s="44"/>
-      <c r="AO67" s="44"/>
-      <c r="AP67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="45"/>
+      <c r="AC67" s="45"/>
+      <c r="AD67" s="45"/>
+      <c r="AE67" s="45"/>
+      <c r="AF67" s="45"/>
+      <c r="AG67" s="45"/>
+      <c r="AH67" s="45"/>
+      <c r="AI67" s="45"/>
+      <c r="AJ67" s="45"/>
+      <c r="AK67" s="45"/>
+      <c r="AL67" s="45"/>
+      <c r="AM67" s="45"/>
+      <c r="AN67" s="45"/>
+      <c r="AO67" s="45"/>
+      <c r="AP67" s="46"/>
     </row>
     <row r="68" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="70"/>
-      <c r="P68" s="70"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="70"/>
-      <c r="S68" s="70"/>
-      <c r="T68" s="70"/>
-      <c r="U68" s="70"/>
-      <c r="V68" s="70"/>
-      <c r="W68" s="70"/>
-      <c r="X68" s="70"/>
-      <c r="Y68" s="70"/>
-      <c r="Z68" s="70"/>
-      <c r="AA68" s="70"/>
-      <c r="AB68" s="70"/>
-      <c r="AC68" s="70"/>
-      <c r="AD68" s="70"/>
-      <c r="AE68" s="70"/>
-      <c r="AF68" s="70"/>
-      <c r="AG68" s="70"/>
-      <c r="AH68" s="70"/>
-      <c r="AI68" s="70"/>
-      <c r="AJ68" s="70"/>
-      <c r="AK68" s="70"/>
-      <c r="AL68" s="70"/>
-      <c r="AM68" s="70"/>
-      <c r="AN68" s="70"/>
-      <c r="AO68" s="70"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="39"/>
+      <c r="AN68" s="39"/>
+      <c r="AO68" s="39"/>
       <c r="AP68" s="7"/>
     </row>
     <row r="69" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="70"/>
-      <c r="N69" s="70"/>
-      <c r="O69" s="70"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="70"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="70"/>
-      <c r="AA69" s="70"/>
-      <c r="AB69" s="70"/>
-      <c r="AC69" s="70"/>
-      <c r="AD69" s="70"/>
-      <c r="AE69" s="70"/>
-      <c r="AF69" s="70"/>
-      <c r="AG69" s="70"/>
-      <c r="AH69" s="70"/>
-      <c r="AI69" s="70"/>
-      <c r="AJ69" s="70"/>
-      <c r="AK69" s="70"/>
-      <c r="AL69" s="70"/>
-      <c r="AM69" s="70"/>
-      <c r="AN69" s="70"/>
-      <c r="AO69" s="70"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
+      <c r="AB69" s="39"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="39"/>
+      <c r="AK69" s="39"/>
+      <c r="AL69" s="39"/>
+      <c r="AM69" s="39"/>
+      <c r="AN69" s="39"/>
+      <c r="AO69" s="39"/>
       <c r="AP69" s="7"/>
     </row>
     <row r="70" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5919,6 +5961,7 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A36:E36"/>
@@ -5931,6 +5974,7 @@
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
+    <mergeCell ref="T5:U6"/>
     <mergeCell ref="V5:W6"/>
     <mergeCell ref="B14:AF15"/>
     <mergeCell ref="H17:AP17"/>
@@ -5954,7 +5998,6 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="F7:O7"/>
@@ -5978,7 +6021,6 @@
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="T5:U6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
+++ b/麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー/履歴書/履歴書_2209423_塚本拓海.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2209423\Documents\GitHub\Tsukamoto_Takumi_Game_Program\麻生情報ビジネス専門学校北九州校_塚本拓海_プログラマー\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098941A-E15E-4643-8457-CF90B31BC273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF2DA9-B3AC-441A-A27C-3A4F8C73077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1757,7 +1757,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1852,6 +1852,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,9 +2010,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2502,7 +2502,7 @@
   <dimension ref="A1:CE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:AO46"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2515,46 +2515,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="2"/>
-      <c r="U1" s="113" t="s">
+      <c r="U1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
       <c r="X1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="113" t="s">
+      <c r="Y1" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="113"/>
+      <c r="Z1" s="114"/>
       <c r="AA1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="113" t="s">
+      <c r="AB1" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="112" t="s">
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
     </row>
     <row r="2" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="40"/>
@@ -2655,31 +2655,31 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
       <c r="AC4" s="37"/>
       <c r="AD4" s="37"/>
       <c r="AE4" s="37"/>
@@ -2743,17 +2743,17 @@
         <v>19</v>
       </c>
       <c r="Y5" s="27"/>
-      <c r="Z5" s="90" t="s">
+      <c r="Z5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="92" t="s">
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="94"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -2794,10 +2794,10 @@
       <c r="Z6" s="28"/>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="96"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -2810,12 +2810,12 @@
       <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="35"/>
       <c r="F7" s="42" t="s">
         <v>23</v>
@@ -2849,70 +2849,70 @@
       <c r="AE7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="88" t="s">
+      <c r="AF7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AG7" s="88"/>
+      <c r="AG7" s="89"/>
       <c r="AH7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AI7" s="89" t="s">
+      <c r="AI7" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
       <c r="AL7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AM7" s="88" t="s">
+      <c r="AM7" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="AN7" s="88"/>
-      <c r="AO7" s="88"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
       <c r="AP7" s="17"/>
     </row>
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="84" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
       <c r="AG8" s="13"/>
-      <c r="AH8" s="80" t="s">
+      <c r="AH8" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="81"/>
+      <c r="AI8" s="82"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -2922,12 +2922,12 @@
       <c r="AP8" s="18"/>
     </row>
     <row r="9" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="26" t="s">
         <v>16</v>
       </c>
@@ -2967,17 +2967,17 @@
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
       <c r="AG9" s="15"/>
-      <c r="AH9" s="85" t="s">
+      <c r="AH9" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
       <c r="AL9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
       <c r="AO9" s="11" t="s">
         <v>19</v>
       </c>
@@ -3020,15 +3020,15 @@
       <c r="AF10" s="68"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="83" t="s">
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3076,47 +3076,47 @@
       <c r="AP11" s="21"/>
     </row>
     <row r="12" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="84" t="s">
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
       <c r="AG12" s="13"/>
-      <c r="AH12" s="80" t="s">
+      <c r="AH12" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="AI12" s="81"/>
+      <c r="AI12" s="82"/>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
@@ -3126,12 +3126,12 @@
       <c r="AP12" s="18"/>
     </row>
     <row r="13" spans="1:42" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="26" t="s">
         <v>16</v>
       </c>
@@ -3171,17 +3171,17 @@
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
-      <c r="AH13" s="85" t="s">
+      <c r="AH13" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
       <c r="AL13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
       <c r="AO13" s="11" t="s">
         <v>19</v>
       </c>
@@ -3224,15 +3224,15 @@
       <c r="AF14" s="68"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="83" t="s">
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3380,43 +3380,43 @@
       <c r="D18" s="62"/>
       <c r="E18" s="63"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="101"/>
+      <c r="G18" s="102"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="97"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
       <c r="AP18" s="22"/>
     </row>
     <row r="19" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3430,43 +3430,43 @@
       <c r="F19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="99"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="98" t="s">
+      <c r="I19" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="98"/>
-      <c r="AM19" s="98"/>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
       <c r="AP19" s="7"/>
     </row>
     <row r="20" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3480,43 +3480,43 @@
       <c r="F20" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="99"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3530,43 +3530,43 @@
       <c r="F21" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="99"/>
+      <c r="G21" s="100"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3580,43 +3580,43 @@
       <c r="F22" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="99"/>
+      <c r="G22" s="100"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="98" t="s">
+      <c r="I22" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="98"/>
-      <c r="AM22" s="98"/>
-      <c r="AN22" s="98"/>
-      <c r="AO22" s="98"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3630,43 +3630,43 @@
       <c r="F23" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="99"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="98" t="s">
+      <c r="I23" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="98"/>
-      <c r="AM23" s="98"/>
-      <c r="AN23" s="98"/>
-      <c r="AO23" s="98"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
       <c r="AP23" s="7"/>
     </row>
     <row r="24" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3676,43 +3676,43 @@
       <c r="D24" s="56"/>
       <c r="E24" s="57"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="99"/>
+      <c r="G24" s="100"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="103" t="s">
+      <c r="I24" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="103"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="103"/>
-      <c r="AO24" s="103"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="104"/>
+      <c r="AJ24" s="104"/>
+      <c r="AK24" s="104"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="104"/>
       <c r="AP24" s="7"/>
     </row>
     <row r="25" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3726,43 +3726,43 @@
       <c r="F25" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="99"/>
+      <c r="G25" s="100"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="98" t="s">
+      <c r="I25" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="98"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="98"/>
-      <c r="AM25" s="98"/>
-      <c r="AN25" s="98"/>
-      <c r="AO25" s="98"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3776,43 +3776,43 @@
       <c r="F26" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="99"/>
+      <c r="G26" s="100"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="98" t="s">
+      <c r="I26" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="98"/>
-      <c r="AM26" s="98"/>
-      <c r="AN26" s="98"/>
-      <c r="AO26" s="98"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="99"/>
+      <c r="AN26" s="99"/>
+      <c r="AO26" s="99"/>
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3822,43 +3822,43 @@
       <c r="D27" s="56"/>
       <c r="E27" s="57"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="99"/>
+      <c r="G27" s="100"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="100" t="s">
+      <c r="I27" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="100"/>
-      <c r="AK27" s="100"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="100"/>
-      <c r="AN27" s="100"/>
-      <c r="AO27" s="100"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="101"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="101"/>
+      <c r="AL27" s="101"/>
+      <c r="AM27" s="101"/>
+      <c r="AN27" s="101"/>
+      <c r="AO27" s="101"/>
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3868,41 +3868,41 @@
       <c r="D28" s="56"/>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="99"/>
+      <c r="G28" s="100"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="98"/>
-      <c r="AM28" s="98"/>
-      <c r="AN28" s="98"/>
-      <c r="AO28" s="98"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="99"/>
+      <c r="AN28" s="99"/>
+      <c r="AO28" s="99"/>
       <c r="AP28" s="7"/>
     </row>
     <row r="29" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3912,41 +3912,41 @@
       <c r="D29" s="56"/>
       <c r="E29" s="57"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="99"/>
+      <c r="G29" s="100"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="103"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="103"/>
-      <c r="AO29" s="103"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
+      <c r="AF29" s="104"/>
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="104"/>
+      <c r="AJ29" s="104"/>
+      <c r="AK29" s="104"/>
+      <c r="AL29" s="104"/>
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="104"/>
       <c r="AP29" s="7"/>
     </row>
     <row r="30" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3956,41 +3956,41 @@
       <c r="D30" s="56"/>
       <c r="E30" s="57"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="99"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="98"/>
-      <c r="AN30" s="98"/>
-      <c r="AO30" s="98"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="99"/>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="99"/>
+      <c r="AN30" s="99"/>
+      <c r="AO30" s="99"/>
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4000,41 +4000,41 @@
       <c r="D31" s="56"/>
       <c r="E31" s="57"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="99"/>
+      <c r="G31" s="100"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="100"/>
-      <c r="AJ31" s="100"/>
-      <c r="AK31" s="100"/>
-      <c r="AL31" s="100"/>
-      <c r="AM31" s="100"/>
-      <c r="AN31" s="100"/>
-      <c r="AO31" s="100"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="101"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="101"/>
+      <c r="AJ31" s="101"/>
+      <c r="AK31" s="101"/>
+      <c r="AL31" s="101"/>
+      <c r="AM31" s="101"/>
+      <c r="AN31" s="101"/>
+      <c r="AO31" s="101"/>
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4044,41 +4044,41 @@
       <c r="D32" s="56"/>
       <c r="E32" s="57"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="99"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="98"/>
-      <c r="AM32" s="98"/>
-      <c r="AN32" s="98"/>
-      <c r="AO32" s="98"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="99"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="99"/>
+      <c r="AO32" s="99"/>
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4088,41 +4088,41 @@
       <c r="D33" s="56"/>
       <c r="E33" s="57"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="99"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="98"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="98"/>
-      <c r="AM33" s="98"/>
-      <c r="AN33" s="98"/>
-      <c r="AO33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="99"/>
+      <c r="AK33" s="99"/>
+      <c r="AL33" s="99"/>
+      <c r="AM33" s="99"/>
+      <c r="AN33" s="99"/>
+      <c r="AO33" s="99"/>
       <c r="AP33" s="7"/>
     </row>
     <row r="34" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4132,41 +4132,41 @@
       <c r="D34" s="56"/>
       <c r="E34" s="57"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="99"/>
+      <c r="G34" s="100"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="98"/>
-      <c r="T34" s="98"/>
-      <c r="U34" s="98"/>
-      <c r="V34" s="98"/>
-      <c r="W34" s="98"/>
-      <c r="X34" s="98"/>
-      <c r="Y34" s="98"/>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="98"/>
-      <c r="AB34" s="98"/>
-      <c r="AC34" s="98"/>
-      <c r="AD34" s="98"/>
-      <c r="AE34" s="98"/>
-      <c r="AF34" s="98"/>
-      <c r="AG34" s="98"/>
-      <c r="AH34" s="98"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="98"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="98"/>
-      <c r="AM34" s="98"/>
-      <c r="AN34" s="98"/>
-      <c r="AO34" s="98"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
       <c r="AP34" s="7"/>
     </row>
     <row r="35" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4176,132 +4176,132 @@
       <c r="D35" s="56"/>
       <c r="E35" s="57"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="99"/>
+      <c r="G35" s="100"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
-      <c r="U35" s="98"/>
-      <c r="V35" s="98"/>
-      <c r="W35" s="98"/>
-      <c r="X35" s="98"/>
-      <c r="Y35" s="98"/>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="98"/>
-      <c r="AB35" s="98"/>
-      <c r="AC35" s="98"/>
-      <c r="AD35" s="98"/>
-      <c r="AE35" s="98"/>
-      <c r="AF35" s="98"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="98"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="98"/>
-      <c r="AM35" s="98"/>
-      <c r="AN35" s="98"/>
-      <c r="AO35" s="98"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="99"/>
+      <c r="AL35" s="99"/>
+      <c r="AM35" s="99"/>
+      <c r="AN35" s="99"/>
+      <c r="AO35" s="99"/>
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="1:83" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="104"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="105"/>
-      <c r="V36" s="105"/>
-      <c r="W36" s="105"/>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="105"/>
-      <c r="Z36" s="105"/>
-      <c r="AA36" s="105"/>
-      <c r="AB36" s="105"/>
-      <c r="AC36" s="105"/>
-      <c r="AD36" s="105"/>
-      <c r="AE36" s="105"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="105"/>
-      <c r="AI36" s="105"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="105"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="106"/>
+      <c r="AE36" s="106"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="106"/>
+      <c r="AH36" s="106"/>
+      <c r="AI36" s="106"/>
+      <c r="AJ36" s="106"/>
+      <c r="AK36" s="106"/>
+      <c r="AL36" s="106"/>
+      <c r="AM36" s="106"/>
+      <c r="AN36" s="106"/>
+      <c r="AO36" s="106"/>
       <c r="AP36" s="8"/>
     </row>
     <row r="37" spans="1:83" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="121"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="121"/>
-      <c r="W37" s="121"/>
-      <c r="X37" s="121"/>
-      <c r="Y37" s="121"/>
-      <c r="Z37" s="121"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="121"/>
-      <c r="AC37" s="121"/>
-      <c r="AD37" s="121"/>
-      <c r="AE37" s="121"/>
-      <c r="AF37" s="121"/>
-      <c r="AG37" s="121"/>
-      <c r="AH37" s="121"/>
-      <c r="AI37" s="121"/>
-      <c r="AJ37" s="121"/>
-      <c r="AK37" s="121"/>
-      <c r="AL37" s="121"/>
-      <c r="AM37" s="121"/>
-      <c r="AN37" s="121"/>
-      <c r="AO37" s="121"/>
-      <c r="AP37" s="121"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
+      <c r="X37" s="122"/>
+      <c r="Y37" s="122"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="122"/>
+      <c r="AB37" s="122"/>
+      <c r="AC37" s="122"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="122"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="122"/>
+      <c r="AH37" s="122"/>
+      <c r="AI37" s="122"/>
+      <c r="AJ37" s="122"/>
+      <c r="AK37" s="122"/>
+      <c r="AL37" s="122"/>
+      <c r="AM37" s="122"/>
+      <c r="AN37" s="122"/>
+      <c r="AO37" s="122"/>
+      <c r="AP37" s="122"/>
     </row>
     <row r="38" spans="1:83" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="58" t="s">
@@ -4354,57 +4354,57 @@
       <c r="AP38" s="70"/>
     </row>
     <row r="39" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="74"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="122"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="123"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="84"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="84"/>
-      <c r="U39" s="84"/>
-      <c r="V39" s="84"/>
-      <c r="W39" s="84"/>
-      <c r="X39" s="84"/>
-      <c r="Y39" s="84"/>
-      <c r="Z39" s="84"/>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="84"/>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="84"/>
-      <c r="AF39" s="84"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="84"/>
-      <c r="AI39" s="84"/>
-      <c r="AJ39" s="84"/>
-      <c r="AK39" s="84"/>
-      <c r="AL39" s="84"/>
-      <c r="AM39" s="84"/>
-      <c r="AN39" s="84"/>
-      <c r="AO39" s="84"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="85"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="85"/>
+      <c r="AE39" s="85"/>
+      <c r="AF39" s="85"/>
+      <c r="AG39" s="85"/>
+      <c r="AH39" s="85"/>
+      <c r="AI39" s="85"/>
+      <c r="AJ39" s="85"/>
+      <c r="AK39" s="85"/>
+      <c r="AL39" s="85"/>
+      <c r="AM39" s="85"/>
+      <c r="AN39" s="85"/>
+      <c r="AO39" s="85"/>
       <c r="AP39" s="22"/>
     </row>
     <row r="40" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="102"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="24"/>
       <c r="I40" s="43"/>
       <c r="J40" s="43"/>
@@ -4442,13 +4442,13 @@
       <c r="AP40" s="7"/>
     </row>
     <row r="41" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="102"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="24"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43"/>
@@ -4486,13 +4486,13 @@
       <c r="AP41" s="7"/>
     </row>
     <row r="42" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="102"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="24"/>
       <c r="I42" s="43"/>
       <c r="J42" s="43"/>
@@ -4530,47 +4530,47 @@
       <c r="AP42" s="7"/>
     </row>
     <row r="43" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="109"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="107"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="25"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="108"/>
-      <c r="V43" s="108"/>
-      <c r="W43" s="108"/>
-      <c r="X43" s="108"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="108"/>
-      <c r="AA43" s="108"/>
-      <c r="AB43" s="108"/>
-      <c r="AC43" s="108"/>
-      <c r="AD43" s="108"/>
-      <c r="AE43" s="108"/>
-      <c r="AF43" s="108"/>
-      <c r="AG43" s="108"/>
-      <c r="AH43" s="108"/>
-      <c r="AI43" s="108"/>
-      <c r="AJ43" s="108"/>
-      <c r="AK43" s="108"/>
-      <c r="AL43" s="108"/>
-      <c r="AM43" s="108"/>
-      <c r="AN43" s="108"/>
-      <c r="AO43" s="108"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="109"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
+      <c r="AE43" s="109"/>
+      <c r="AF43" s="109"/>
+      <c r="AG43" s="109"/>
+      <c r="AH43" s="109"/>
+      <c r="AI43" s="109"/>
+      <c r="AJ43" s="109"/>
+      <c r="AK43" s="109"/>
+      <c r="AL43" s="109"/>
+      <c r="AM43" s="109"/>
+      <c r="AN43" s="109"/>
+      <c r="AO43" s="109"/>
       <c r="AP43" s="10"/>
     </row>
     <row r="44" spans="1:83" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4665,271 +4665,271 @@
     </row>
     <row r="46" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
-      <c r="AA46" s="39"/>
-      <c r="AB46" s="39"/>
-      <c r="AC46" s="39"/>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="39"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="39"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="39"/>
-      <c r="AM46" s="39"/>
-      <c r="AN46" s="39"/>
-      <c r="AO46" s="39"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="71"/>
+      <c r="AB46" s="71"/>
+      <c r="AC46" s="71"/>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="71"/>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="71"/>
+      <c r="AH46" s="71"/>
+      <c r="AI46" s="71"/>
+      <c r="AJ46" s="71"/>
+      <c r="AK46" s="71"/>
+      <c r="AL46" s="71"/>
+      <c r="AM46" s="71"/>
+      <c r="AN46" s="71"/>
+      <c r="AO46" s="71"/>
       <c r="AP46" s="7"/>
-      <c r="AS46" s="123"/>
-      <c r="AT46" s="123"/>
-      <c r="AU46" s="123"/>
-      <c r="AV46" s="123"/>
-      <c r="AW46" s="123"/>
-      <c r="AX46" s="123"/>
-      <c r="AY46" s="123"/>
-      <c r="AZ46" s="123"/>
-      <c r="BA46" s="123"/>
-      <c r="BB46" s="123"/>
-      <c r="BC46" s="123"/>
-      <c r="BD46" s="123"/>
-      <c r="BE46" s="123"/>
-      <c r="BF46" s="123"/>
-      <c r="BG46" s="123"/>
-      <c r="BH46" s="123"/>
-      <c r="BI46" s="123"/>
-      <c r="BJ46" s="123"/>
-      <c r="BK46" s="123"/>
-      <c r="BL46" s="123"/>
-      <c r="BM46" s="123"/>
-      <c r="BN46" s="123"/>
-      <c r="BO46" s="123"/>
-      <c r="BP46" s="123"/>
-      <c r="BQ46" s="123"/>
-      <c r="BR46" s="123"/>
-      <c r="BS46" s="123"/>
-      <c r="BT46" s="123"/>
-      <c r="BU46" s="123"/>
-      <c r="BV46" s="123"/>
-      <c r="BW46" s="123"/>
-      <c r="BX46" s="123"/>
-      <c r="BY46" s="123"/>
-      <c r="BZ46" s="123"/>
-      <c r="CA46" s="123"/>
-      <c r="CB46" s="123"/>
-      <c r="CC46" s="123"/>
-      <c r="CD46" s="123"/>
-      <c r="CE46" s="123"/>
+      <c r="AS46" s="39"/>
+      <c r="AT46" s="39"/>
+      <c r="AU46" s="39"/>
+      <c r="AV46" s="39"/>
+      <c r="AW46" s="39"/>
+      <c r="AX46" s="39"/>
+      <c r="AY46" s="39"/>
+      <c r="AZ46" s="39"/>
+      <c r="BA46" s="39"/>
+      <c r="BB46" s="39"/>
+      <c r="BC46" s="39"/>
+      <c r="BD46" s="39"/>
+      <c r="BE46" s="39"/>
+      <c r="BF46" s="39"/>
+      <c r="BG46" s="39"/>
+      <c r="BH46" s="39"/>
+      <c r="BI46" s="39"/>
+      <c r="BJ46" s="39"/>
+      <c r="BK46" s="39"/>
+      <c r="BL46" s="39"/>
+      <c r="BM46" s="39"/>
+      <c r="BN46" s="39"/>
+      <c r="BO46" s="39"/>
+      <c r="BP46" s="39"/>
+      <c r="BQ46" s="39"/>
+      <c r="BR46" s="39"/>
+      <c r="BS46" s="39"/>
+      <c r="BT46" s="39"/>
+      <c r="BU46" s="39"/>
+      <c r="BV46" s="39"/>
+      <c r="BW46" s="39"/>
+      <c r="BX46" s="39"/>
+      <c r="BY46" s="39"/>
+      <c r="BZ46" s="39"/>
+      <c r="CA46" s="39"/>
+      <c r="CB46" s="39"/>
+      <c r="CC46" s="39"/>
+      <c r="CD46" s="39"/>
+      <c r="CE46" s="39"/>
     </row>
     <row r="47" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="39"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="71"/>
+      <c r="AA47" s="71"/>
+      <c r="AB47" s="71"/>
+      <c r="AC47" s="71"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="71"/>
+      <c r="AH47" s="71"/>
+      <c r="AI47" s="71"/>
+      <c r="AJ47" s="71"/>
+      <c r="AK47" s="71"/>
+      <c r="AL47" s="71"/>
+      <c r="AM47" s="71"/>
+      <c r="AN47" s="71"/>
+      <c r="AO47" s="71"/>
       <c r="AP47" s="7"/>
     </row>
     <row r="48" spans="1:83" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39"/>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="39"/>
-      <c r="AM48" s="39"/>
-      <c r="AN48" s="39"/>
-      <c r="AO48" s="39"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
+      <c r="AA48" s="71"/>
+      <c r="AB48" s="71"/>
+      <c r="AC48" s="71"/>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="71"/>
+      <c r="AH48" s="71"/>
+      <c r="AI48" s="71"/>
+      <c r="AJ48" s="71"/>
+      <c r="AK48" s="71"/>
+      <c r="AL48" s="71"/>
+      <c r="AM48" s="71"/>
+      <c r="AN48" s="71"/>
+      <c r="AO48" s="71"/>
       <c r="AP48" s="7"/>
     </row>
     <row r="49" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39"/>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39"/>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="71"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="71"/>
+      <c r="AJ49" s="71"/>
+      <c r="AK49" s="71"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="71"/>
+      <c r="AN49" s="71"/>
+      <c r="AO49" s="71"/>
       <c r="AP49" s="7"/>
     </row>
     <row r="50" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="39"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="71"/>
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="71"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="71"/>
+      <c r="AI50" s="71"/>
+      <c r="AJ50" s="71"/>
+      <c r="AK50" s="71"/>
+      <c r="AL50" s="71"/>
+      <c r="AM50" s="71"/>
+      <c r="AN50" s="71"/>
+      <c r="AO50" s="71"/>
       <c r="AP50" s="7"/>
     </row>
     <row r="51" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4980,278 +4980,278 @@
     </row>
     <row r="52" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="39"/>
-      <c r="AL52" s="39"/>
-      <c r="AM52" s="39"/>
-      <c r="AN52" s="39"/>
-      <c r="AO52" s="39"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="71"/>
+      <c r="AA52" s="71"/>
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="71"/>
+      <c r="AF52" s="71"/>
+      <c r="AG52" s="71"/>
+      <c r="AH52" s="71"/>
+      <c r="AI52" s="71"/>
+      <c r="AJ52" s="71"/>
+      <c r="AK52" s="71"/>
+      <c r="AL52" s="71"/>
+      <c r="AM52" s="71"/>
+      <c r="AN52" s="71"/>
+      <c r="AO52" s="71"/>
       <c r="AP52" s="7"/>
     </row>
     <row r="53" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39"/>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
+      <c r="Z53" s="71"/>
+      <c r="AA53" s="71"/>
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="71"/>
+      <c r="AD53" s="71"/>
+      <c r="AE53" s="71"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="71"/>
+      <c r="AH53" s="71"/>
+      <c r="AI53" s="71"/>
+      <c r="AJ53" s="71"/>
+      <c r="AK53" s="71"/>
+      <c r="AL53" s="71"/>
+      <c r="AM53" s="71"/>
+      <c r="AN53" s="71"/>
+      <c r="AO53" s="71"/>
       <c r="AP53" s="7"/>
     </row>
     <row r="54" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="71"/>
+      <c r="V54" s="71"/>
+      <c r="W54" s="71"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="71"/>
+      <c r="Z54" s="71"/>
+      <c r="AA54" s="71"/>
+      <c r="AB54" s="71"/>
+      <c r="AC54" s="71"/>
+      <c r="AD54" s="71"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="71"/>
+      <c r="AH54" s="71"/>
+      <c r="AI54" s="71"/>
+      <c r="AJ54" s="71"/>
+      <c r="AK54" s="71"/>
+      <c r="AL54" s="71"/>
+      <c r="AM54" s="71"/>
+      <c r="AN54" s="71"/>
+      <c r="AO54" s="71"/>
       <c r="AP54" s="7"/>
     </row>
     <row r="55" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="71"/>
+      <c r="V55" s="71"/>
+      <c r="W55" s="71"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="71"/>
+      <c r="Z55" s="71"/>
+      <c r="AA55" s="71"/>
+      <c r="AB55" s="71"/>
+      <c r="AC55" s="71"/>
+      <c r="AD55" s="71"/>
+      <c r="AE55" s="71"/>
+      <c r="AF55" s="71"/>
+      <c r="AG55" s="71"/>
+      <c r="AH55" s="71"/>
+      <c r="AI55" s="71"/>
+      <c r="AJ55" s="71"/>
+      <c r="AK55" s="71"/>
+      <c r="AL55" s="71"/>
+      <c r="AM55" s="71"/>
+      <c r="AN55" s="71"/>
+      <c r="AO55" s="71"/>
       <c r="AP55" s="7"/>
     </row>
     <row r="56" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="39"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="71"/>
+      <c r="AF56" s="71"/>
+      <c r="AG56" s="71"/>
+      <c r="AH56" s="71"/>
+      <c r="AI56" s="71"/>
+      <c r="AJ56" s="71"/>
+      <c r="AK56" s="71"/>
+      <c r="AL56" s="71"/>
+      <c r="AM56" s="71"/>
+      <c r="AN56" s="71"/>
+      <c r="AO56" s="71"/>
       <c r="AP56" s="7"/>
     </row>
     <row r="57" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="71"/>
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="71"/>
+      <c r="AF57" s="71"/>
+      <c r="AG57" s="71"/>
+      <c r="AH57" s="71"/>
+      <c r="AI57" s="71"/>
+      <c r="AJ57" s="71"/>
+      <c r="AK57" s="71"/>
+      <c r="AL57" s="71"/>
+      <c r="AM57" s="71"/>
+      <c r="AN57" s="71"/>
+      <c r="AO57" s="71"/>
       <c r="AP57" s="7"/>
     </row>
     <row r="58" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5304,186 +5304,186 @@
     </row>
     <row r="59" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="71"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
+      <c r="AH59" s="71"/>
+      <c r="AI59" s="71"/>
+      <c r="AJ59" s="71"/>
+      <c r="AK59" s="71"/>
+      <c r="AL59" s="71"/>
+      <c r="AM59" s="71"/>
+      <c r="AN59" s="71"/>
+      <c r="AO59" s="71"/>
       <c r="AP59" s="7"/>
     </row>
     <row r="60" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="71"/>
+      <c r="AH60" s="71"/>
+      <c r="AI60" s="71"/>
+      <c r="AJ60" s="71"/>
+      <c r="AK60" s="71"/>
+      <c r="AL60" s="71"/>
+      <c r="AM60" s="71"/>
+      <c r="AN60" s="71"/>
+      <c r="AO60" s="71"/>
       <c r="AP60" s="7"/>
     </row>
     <row r="61" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="39"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
+      <c r="Z61" s="71"/>
+      <c r="AA61" s="71"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
+      <c r="AH61" s="71"/>
+      <c r="AI61" s="71"/>
+      <c r="AJ61" s="71"/>
+      <c r="AK61" s="71"/>
+      <c r="AL61" s="71"/>
+      <c r="AM61" s="71"/>
+      <c r="AN61" s="71"/>
+      <c r="AO61" s="71"/>
       <c r="AP61" s="7"/>
     </row>
     <row r="62" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
-      <c r="AB62" s="39"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="39"/>
-      <c r="AE62" s="39"/>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="39"/>
-      <c r="AJ62" s="39"/>
-      <c r="AK62" s="39"/>
-      <c r="AL62" s="39"/>
-      <c r="AM62" s="39"/>
-      <c r="AN62" s="39"/>
-      <c r="AO62" s="39"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
+      <c r="AH62" s="71"/>
+      <c r="AI62" s="71"/>
+      <c r="AJ62" s="71"/>
+      <c r="AK62" s="71"/>
+      <c r="AL62" s="71"/>
+      <c r="AM62" s="71"/>
+      <c r="AN62" s="71"/>
+      <c r="AO62" s="71"/>
       <c r="AP62" s="7"/>
     </row>
     <row r="63" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5536,140 +5536,140 @@
     </row>
     <row r="64" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="39"/>
-      <c r="AI64" s="39"/>
-      <c r="AJ64" s="39"/>
-      <c r="AK64" s="39"/>
-      <c r="AL64" s="39"/>
-      <c r="AM64" s="39"/>
-      <c r="AN64" s="39"/>
-      <c r="AO64" s="39"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="71"/>
+      <c r="W64" s="71"/>
+      <c r="X64" s="71"/>
+      <c r="Y64" s="71"/>
+      <c r="Z64" s="71"/>
+      <c r="AA64" s="71"/>
+      <c r="AB64" s="71"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="71"/>
+      <c r="AG64" s="71"/>
+      <c r="AH64" s="71"/>
+      <c r="AI64" s="71"/>
+      <c r="AJ64" s="71"/>
+      <c r="AK64" s="71"/>
+      <c r="AL64" s="71"/>
+      <c r="AM64" s="71"/>
+      <c r="AN64" s="71"/>
+      <c r="AO64" s="71"/>
       <c r="AP64" s="7"/>
     </row>
     <row r="65" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="39"/>
-      <c r="AB65" s="39"/>
-      <c r="AC65" s="39"/>
-      <c r="AD65" s="39"/>
-      <c r="AE65" s="39"/>
-      <c r="AF65" s="39"/>
-      <c r="AG65" s="39"/>
-      <c r="AH65" s="39"/>
-      <c r="AI65" s="39"/>
-      <c r="AJ65" s="39"/>
-      <c r="AK65" s="39"/>
-      <c r="AL65" s="39"/>
-      <c r="AM65" s="39"/>
-      <c r="AN65" s="39"/>
-      <c r="AO65" s="39"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
+      <c r="Z65" s="71"/>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
+      <c r="AH65" s="71"/>
+      <c r="AI65" s="71"/>
+      <c r="AJ65" s="71"/>
+      <c r="AK65" s="71"/>
+      <c r="AL65" s="71"/>
+      <c r="AM65" s="71"/>
+      <c r="AN65" s="71"/>
+      <c r="AO65" s="71"/>
       <c r="AP65" s="7"/>
     </row>
     <row r="66" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="39"/>
-      <c r="AB66" s="39"/>
-      <c r="AC66" s="39"/>
-      <c r="AD66" s="39"/>
-      <c r="AE66" s="39"/>
-      <c r="AF66" s="39"/>
-      <c r="AG66" s="39"/>
-      <c r="AH66" s="39"/>
-      <c r="AI66" s="39"/>
-      <c r="AJ66" s="39"/>
-      <c r="AK66" s="39"/>
-      <c r="AL66" s="39"/>
-      <c r="AM66" s="39"/>
-      <c r="AN66" s="39"/>
-      <c r="AO66" s="39"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
+      <c r="V66" s="71"/>
+      <c r="W66" s="71"/>
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
+      <c r="Z66" s="71"/>
+      <c r="AA66" s="71"/>
+      <c r="AB66" s="71"/>
+      <c r="AC66" s="71"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="71"/>
+      <c r="AH66" s="71"/>
+      <c r="AI66" s="71"/>
+      <c r="AJ66" s="71"/>
+      <c r="AK66" s="71"/>
+      <c r="AL66" s="71"/>
+      <c r="AM66" s="71"/>
+      <c r="AN66" s="71"/>
+      <c r="AO66" s="71"/>
       <c r="AP66" s="7"/>
     </row>
     <row r="67" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5720,140 +5720,140 @@
     </row>
     <row r="68" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="39"/>
-      <c r="AM68" s="39"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="39"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
+      <c r="V68" s="71"/>
+      <c r="W68" s="71"/>
+      <c r="X68" s="71"/>
+      <c r="Y68" s="71"/>
+      <c r="Z68" s="71"/>
+      <c r="AA68" s="71"/>
+      <c r="AB68" s="71"/>
+      <c r="AC68" s="71"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="71"/>
+      <c r="AG68" s="71"/>
+      <c r="AH68" s="71"/>
+      <c r="AI68" s="71"/>
+      <c r="AJ68" s="71"/>
+      <c r="AK68" s="71"/>
+      <c r="AL68" s="71"/>
+      <c r="AM68" s="71"/>
+      <c r="AN68" s="71"/>
+      <c r="AO68" s="71"/>
       <c r="AP68" s="7"/>
     </row>
     <row r="69" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="39"/>
-      <c r="AL69" s="39"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="39"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
+      <c r="V69" s="71"/>
+      <c r="W69" s="71"/>
+      <c r="X69" s="71"/>
+      <c r="Y69" s="71"/>
+      <c r="Z69" s="71"/>
+      <c r="AA69" s="71"/>
+      <c r="AB69" s="71"/>
+      <c r="AC69" s="71"/>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="71"/>
+      <c r="AF69" s="71"/>
+      <c r="AG69" s="71"/>
+      <c r="AH69" s="71"/>
+      <c r="AI69" s="71"/>
+      <c r="AJ69" s="71"/>
+      <c r="AK69" s="71"/>
+      <c r="AL69" s="71"/>
+      <c r="AM69" s="71"/>
+      <c r="AN69" s="71"/>
+      <c r="AO69" s="71"/>
       <c r="AP69" s="7"/>
     </row>
     <row r="70" spans="1:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
-      <c r="B70" s="111" t="s">
+      <c r="B70" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="111"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="111"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="111"/>
-      <c r="U70" s="111"/>
-      <c r="V70" s="111"/>
-      <c r="W70" s="111"/>
-      <c r="X70" s="111"/>
-      <c r="Y70" s="111"/>
-      <c r="Z70" s="111"/>
-      <c r="AA70" s="111"/>
-      <c r="AB70" s="111"/>
-      <c r="AC70" s="111"/>
-      <c r="AD70" s="111"/>
-      <c r="AE70" s="111"/>
-      <c r="AF70" s="111"/>
-      <c r="AG70" s="111"/>
-      <c r="AH70" s="111"/>
-      <c r="AI70" s="111"/>
-      <c r="AJ70" s="111"/>
-      <c r="AK70" s="111"/>
-      <c r="AL70" s="111"/>
-      <c r="AM70" s="111"/>
-      <c r="AN70" s="111"/>
-      <c r="AO70" s="111"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="112"/>
+      <c r="K70" s="112"/>
+      <c r="L70" s="112"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="112"/>
+      <c r="R70" s="112"/>
+      <c r="S70" s="112"/>
+      <c r="T70" s="112"/>
+      <c r="U70" s="112"/>
+      <c r="V70" s="112"/>
+      <c r="W70" s="112"/>
+      <c r="X70" s="112"/>
+      <c r="Y70" s="112"/>
+      <c r="Z70" s="112"/>
+      <c r="AA70" s="112"/>
+      <c r="AB70" s="112"/>
+      <c r="AC70" s="112"/>
+      <c r="AD70" s="112"/>
+      <c r="AE70" s="112"/>
+      <c r="AF70" s="112"/>
+      <c r="AG70" s="112"/>
+      <c r="AH70" s="112"/>
+      <c r="AI70" s="112"/>
+      <c r="AJ70" s="112"/>
+      <c r="AK70" s="112"/>
+      <c r="AL70" s="112"/>
+      <c r="AM70" s="112"/>
+      <c r="AN70" s="112"/>
+      <c r="AO70" s="112"/>
       <c r="AP70" s="10"/>
     </row>
     <row r="71" spans="1:42" ht="26.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5961,7 +5961,6 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A36:E36"/>
@@ -5974,7 +5973,6 @@
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="T5:U6"/>
     <mergeCell ref="V5:W6"/>
     <mergeCell ref="B14:AF15"/>
     <mergeCell ref="H17:AP17"/>
@@ -5998,6 +5996,7 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="F7:O7"/>
@@ -6021,6 +6020,7 @@
     <mergeCell ref="H5:I6"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="T5:U6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
